--- a/DFC_app/data/EFE_1.xlsx
+++ b/DFC_app/data/EFE_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\DFC_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C1E91-6F27-4506-AB9B-4EB556595CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC4CC05-621C-4180-BDE6-BB35CC5708F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,13 +361,13 @@
     <t xml:space="preserve">50 et plus </t>
   </si>
   <si>
-    <t xml:space="preserve">Service </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commerce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrie </t>
+    <t xml:space="preserve">Service ensemble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commerce ensemble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrie ensemble </t>
   </si>
 </sst>
 </file>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S126" sqref="S126"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,85 +810,85 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>59.723125028295598</v>
+        <v>39.647741999941097</v>
       </c>
       <c r="B2">
-        <v>43.106534321176603</v>
+        <v>30.239037115693801</v>
       </c>
       <c r="C2">
-        <v>42.798148103636002</v>
+        <v>28.329854389885501</v>
       </c>
       <c r="D2">
-        <v>22.9854429521782</v>
+        <v>28.2845746003253</v>
       </c>
       <c r="E2">
-        <v>17.146153248222401</v>
+        <v>14.661036626664201</v>
       </c>
       <c r="F2">
-        <v>3.3655409243145802</v>
+        <v>2.84595581376891</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>72.931561534788102</v>
+        <v>51.189307067150402</v>
       </c>
       <c r="K2">
-        <v>28.418075940294301</v>
+        <v>11.186782908658801</v>
       </c>
       <c r="L2">
-        <v>11.2691802761817</v>
+        <v>9.6683229313558492</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P2">
-        <v>45.801595574074902</v>
+        <v>54.553686694511697</v>
       </c>
       <c r="Q2">
-        <v>45.16087247422</v>
+        <v>40.788458417172997</v>
       </c>
       <c r="R2">
-        <v>43.312266931577099</v>
+        <v>34.523966316211002</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2">
-        <v>61.7553959138978</v>
+        <v>60.488506078979299</v>
       </c>
       <c r="W2">
-        <v>15.009876762490601</v>
+        <v>32.986336116109598</v>
       </c>
       <c r="X2">
-        <v>14.474246536958301</v>
+        <v>32.387615595374598</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
         <v>34</v>
@@ -896,85 +896,82 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>37.773114804414199</v>
+        <v>13.771811469502</v>
       </c>
       <c r="B3">
-        <v>32.584186561560003</v>
+        <v>18.976772123464102</v>
       </c>
       <c r="C3">
-        <v>32.584186561560003</v>
+        <v>18.807045589884702</v>
       </c>
       <c r="D3">
-        <v>16.741346102271802</v>
+        <v>100.02480596262301</v>
       </c>
       <c r="E3">
-        <v>13.7211916522207</v>
+        <v>50.019580558280602</v>
       </c>
       <c r="F3">
-        <v>1.96771631386358</v>
+        <v>2.8352421007759898</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
         <v>35</v>
       </c>
       <c r="J3">
-        <v>63.904501873390402</v>
+        <v>39.1420101251774</v>
       </c>
       <c r="K3">
-        <v>25.854599140746299</v>
+        <v>16.584087785712502</v>
       </c>
       <c r="L3">
-        <v>13.004439175446601</v>
+        <v>7.3244807906176703</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
       <c r="P3">
-        <v>49.571933059126302</v>
+        <v>52.398299633473201</v>
       </c>
       <c r="Q3">
-        <v>48.153127902799099</v>
+        <v>43.623440965399801</v>
       </c>
       <c r="R3">
-        <v>36.806209008577397</v>
+        <v>33.745171616936901</v>
       </c>
       <c r="S3" t="s">
         <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
         <v>30</v>
       </c>
       <c r="V3">
-        <v>63.6882289627886</v>
+        <v>59.668666975968399</v>
       </c>
       <c r="W3">
-        <v>13.7908174374006</v>
+        <v>30.530992211647</v>
       </c>
       <c r="X3">
-        <v>12.6699139430887</v>
+        <v>29.607970490312098</v>
       </c>
       <c r="Y3" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s">
         <v>93</v>
@@ -982,40 +979,43 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>46.2739599487603</v>
+        <v>24.457071343231</v>
       </c>
       <c r="B4">
-        <v>65.226755463508994</v>
+        <v>35.932082870240798</v>
       </c>
       <c r="C4">
-        <v>65.226755463508994</v>
+        <v>32.0501110167449</v>
       </c>
       <c r="D4">
-        <v>35.472860057272797</v>
+        <v>45.736386283812401</v>
       </c>
       <c r="E4">
-        <v>22.691301950065998</v>
+        <v>24.6560201124428</v>
       </c>
       <c r="F4">
-        <v>3.3136149071415901</v>
+        <v>2.2062550688174598</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
       <c r="J4">
-        <v>89.607827210377096</v>
+        <v>57.886704857199298</v>
       </c>
       <c r="K4">
-        <v>35.747488912940703</v>
+        <v>22.303729440796101</v>
       </c>
       <c r="L4">
-        <v>10.2135682608402</v>
+        <v>12.7569006158188</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -1024,167 +1024,167 @@
         <v>31</v>
       </c>
       <c r="P4">
-        <v>69.1806906886966</v>
+        <v>45.554495295880599</v>
       </c>
       <c r="Q4">
-        <v>58.967122427856403</v>
+        <v>37.005848530529803</v>
       </c>
       <c r="R4">
-        <v>48.753554167016198</v>
+        <v>35.741693491067998</v>
       </c>
       <c r="S4" t="s">
         <v>33</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V4">
-        <v>49.906885201821297</v>
+        <v>65.370359414806501</v>
       </c>
       <c r="W4">
-        <v>29.779857974368301</v>
+        <v>40.9329463009093</v>
       </c>
       <c r="X4">
-        <v>20.200683982413501</v>
+        <v>37.823081783630499</v>
       </c>
       <c r="Y4" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>47.357672041870103</v>
-      </c>
-      <c r="B5">
-        <v>78.271878011228793</v>
-      </c>
-      <c r="C5">
-        <v>73.507455428263199</v>
-      </c>
-      <c r="D5">
-        <v>29.866924146940399</v>
-      </c>
-      <c r="E5">
-        <v>18.590423158036501</v>
-      </c>
-      <c r="F5">
-        <v>3.2067197231737201</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="A5" s="1">
+        <v>22.171885142061299</v>
+      </c>
+      <c r="B5" s="1">
+        <v>61.256614673272402</v>
+      </c>
+      <c r="C5" s="1">
+        <v>53.619121114425603</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34.1730151375858</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.6695319811615</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.0249473014640502</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5">
-        <v>67.504836330213394</v>
-      </c>
-      <c r="K5">
-        <v>20.679136443192299</v>
-      </c>
-      <c r="L5">
-        <v>11.7775127363784</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5">
-        <v>50.078342711983503</v>
-      </c>
-      <c r="Q5">
-        <v>35.634359162317601</v>
-      </c>
-      <c r="R5">
-        <v>25.130650121470602</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1">
+        <v>58.273540259187598</v>
+      </c>
+      <c r="K5" s="1">
+        <v>22.6678296740523</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.9567933074301</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="1">
+        <v>59.936408318312701</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>42.486030475279101</v>
+      </c>
+      <c r="R5" s="1">
+        <v>35.618680488653297</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5">
-        <v>51.949772764131197</v>
-      </c>
-      <c r="W5">
-        <v>37.729768423777102</v>
-      </c>
-      <c r="X5">
-        <v>19.1506769858441</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="T5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="1">
+        <v>56.022992011494203</v>
+      </c>
+      <c r="W5" s="1">
+        <v>47.714546957258698</v>
+      </c>
+      <c r="X5" s="1">
+        <v>39.492631489762502</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>39.196977213688598</v>
+        <v>27.407402148844302</v>
       </c>
       <c r="B6">
-        <v>89.947677088154194</v>
+        <v>78.924419591647606</v>
       </c>
       <c r="C6">
-        <v>85.181906403176797</v>
+        <v>72.028050054232807</v>
       </c>
       <c r="D6">
-        <v>38.106637795917401</v>
+        <v>29.950464235903201</v>
       </c>
       <c r="E6">
-        <v>16.8059845344828</v>
+        <v>10.659800906082801</v>
       </c>
       <c r="F6">
-        <v>2.5122694747541701</v>
+        <v>2.0307896801181</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J6">
-        <v>79.2517546768198</v>
+        <v>61.4436741434331</v>
       </c>
       <c r="K6">
-        <v>34.098093300936803</v>
+        <v>23.937461317011</v>
       </c>
       <c r="L6">
-        <v>23.215806682013302</v>
+        <v>21.04002256843</v>
       </c>
       <c r="M6" t="s">
         <v>30</v>
@@ -1196,13 +1196,13 @@
         <v>32</v>
       </c>
       <c r="P6">
-        <v>47.070827300959998</v>
+        <v>62.555347717766097</v>
       </c>
       <c r="Q6">
-        <v>27.476599536115302</v>
+        <v>40.8993739540146</v>
       </c>
       <c r="R6">
-        <v>26.746681336523</v>
+        <v>34.093081191834102</v>
       </c>
       <c r="S6" t="s">
         <v>30</v>
@@ -1214,22 +1214,22 @@
         <v>32</v>
       </c>
       <c r="V6">
-        <v>52.590354221895602</v>
+        <v>58.057686909878598</v>
       </c>
       <c r="W6">
-        <v>48.493301962575003</v>
+        <v>52.603746312757501</v>
       </c>
       <c r="X6">
-        <v>48.493301962575003</v>
+        <v>36.046887444544801</v>
       </c>
       <c r="Y6" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="s">
         <v>101</v>
@@ -1237,67 +1237,85 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>77.300421847107202</v>
+        <v>44.366267893686299</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>95.104080302868795</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>90.325873640516207</v>
       </c>
       <c r="D7">
-        <v>18.689806560849899</v>
+        <v>20.7263225609654</v>
       </c>
       <c r="E7">
-        <v>14.447299313945299</v>
+        <v>9.7970607265878709</v>
       </c>
       <c r="F7">
-        <v>2.7706921542129002</v>
+        <v>2.53136781625573</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
       <c r="J7">
-        <v>74.997956585937402</v>
+        <v>67.868121411706994</v>
       </c>
       <c r="K7">
-        <v>41.122794663055899</v>
+        <v>31.1910289326098</v>
       </c>
       <c r="L7">
-        <v>30.393625556818101</v>
+        <v>29.079891300386901</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="P7">
-        <v>69.570329248926001</v>
+        <v>71.165823742970602</v>
       </c>
       <c r="Q7">
-        <v>32.262327507127701</v>
+        <v>38.930102860007104</v>
       </c>
       <c r="R7">
-        <v>29.214791821192801</v>
+        <v>30.182452957217698</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7">
+        <v>67.535942703898499</v>
+      </c>
+      <c r="W7">
+        <v>36.393714854139397</v>
+      </c>
+      <c r="X7">
+        <v>35.1399010350083</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="s">
         <v>102</v>
@@ -1305,22 +1323,22 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>77.850429595875696</v>
+        <v>52.999881497575203</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>98.240510057050003</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>96.263215896518304</v>
       </c>
       <c r="D8">
-        <v>20.018487505893599</v>
+        <v>20.328962646799301</v>
       </c>
       <c r="E8">
-        <v>15.5844785219349</v>
+        <v>11.1152708144493</v>
       </c>
       <c r="F8">
-        <v>4.8700409032704899</v>
+        <v>2.88621160896697</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
@@ -1329,43 +1347,61 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>72.056729777771906</v>
+        <v>75.089620017216006</v>
       </c>
       <c r="K8">
-        <v>40.942816489370998</v>
+        <v>44.961360302896701</v>
       </c>
       <c r="L8">
-        <v>30.3202541328256</v>
+        <v>34.338573661478101</v>
       </c>
       <c r="M8" t="s">
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="P8">
-        <v>63.309480270394701</v>
+        <v>77.433795195576295</v>
       </c>
       <c r="Q8">
-        <v>25.710628457103098</v>
+        <v>38.1922929928364</v>
       </c>
       <c r="R8">
-        <v>19.512361682761799</v>
+        <v>28.702575205562098</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8">
+        <v>54.943495262300097</v>
+      </c>
+      <c r="W8">
+        <v>36.737729878541302</v>
+      </c>
+      <c r="X8">
+        <v>24.845422020329099</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="s">
         <v>103</v>
@@ -1373,22 +1409,22 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>82.3937254126688</v>
+        <v>51.231707414547898</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>99.795195617586799</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>97.859073644577407</v>
       </c>
       <c r="D9">
-        <v>21.283404364616601</v>
+        <v>20.604407709357599</v>
       </c>
       <c r="E9">
-        <v>17.536189750650198</v>
+        <v>10.7914498294843</v>
       </c>
       <c r="F9">
-        <v>4.6134863455675799</v>
+        <v>3.3729773269924901</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -1397,43 +1433,61 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>89.446764907697599</v>
+        <v>75.778926908142694</v>
       </c>
       <c r="K9">
-        <v>78.893529815395098</v>
+        <v>49.950990523603402</v>
       </c>
       <c r="L9">
-        <v>42.212940369209697</v>
+        <v>36.655087815998499</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P9">
+        <v>81.518053697838795</v>
+      </c>
+      <c r="Q9">
+        <v>39.789258253288502</v>
+      </c>
+      <c r="R9">
+        <v>26.796317460612201</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9">
         <v>100</v>
       </c>
-      <c r="Q9">
-        <v>31.6597052769073</v>
-      </c>
-      <c r="R9">
-        <v>21.106470184604799</v>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>100</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="s">
         <v>104</v>
@@ -1441,67 +1495,79 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>95.945199298367896</v>
+        <v>63.158624815961701</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>99.380882107878804</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>98.810520805802696</v>
       </c>
       <c r="D10">
-        <v>17.594861479335499</v>
+        <v>22.968517397055699</v>
       </c>
       <c r="E10">
-        <v>16.881424912620201</v>
+        <v>14.582396517916401</v>
       </c>
       <c r="F10">
-        <v>4.42983639735548</v>
+        <v>3.7228237548202201</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
       <c r="J10">
-        <v>57.9786302329655</v>
+        <v>73.434106248608899</v>
       </c>
       <c r="K10">
-        <v>57.9786302329655</v>
+        <v>53.682316409670896</v>
       </c>
       <c r="L10">
-        <v>51.1122788579436</v>
+        <v>33.254147371923402</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P10">
-        <v>80.101593974426393</v>
+        <v>78.005437326491304</v>
       </c>
       <c r="Q10">
-        <v>42.0213697670345</v>
+        <v>33.481170164939599</v>
       </c>
       <c r="R10">
-        <v>28.9893151164827</v>
+        <v>22.126977550356301</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10">
+        <v>16.629995149662001</v>
+      </c>
+      <c r="W10">
+        <v>16.629995149662001</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s">
         <v>105</v>
@@ -1584,7 +1650,7 @@
         <v>107</v>
       </c>
       <c r="Z11" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AA11" t="s">
         <v>78</v>
@@ -1595,212 +1661,227 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>39.196977213688598</v>
+        <v>37.773114804414199</v>
       </c>
       <c r="B12">
-        <v>89.947677088154194</v>
+        <v>32.584186561560003</v>
       </c>
       <c r="C12">
-        <v>85.181906403176797</v>
+        <v>32.584186561560003</v>
       </c>
       <c r="D12">
-        <v>38.106637795917401</v>
+        <v>16.741346102271802</v>
       </c>
       <c r="E12">
-        <v>16.8059845344828</v>
+        <v>13.7211916522207</v>
       </c>
       <c r="F12">
-        <v>2.5122694747541701</v>
+        <v>1.96771631386358</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
       </c>
       <c r="J12">
-        <v>79.2517546768198</v>
+        <v>63.904501873390402</v>
       </c>
       <c r="K12">
-        <v>34.098093300936803</v>
+        <v>25.854599140746299</v>
       </c>
       <c r="L12">
-        <v>23.215806682013302</v>
+        <v>13.004439175446601</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
         <v>32</v>
       </c>
       <c r="P12">
-        <v>47.070827300959998</v>
+        <v>49.571933059126302</v>
       </c>
       <c r="Q12">
-        <v>27.476599536115302</v>
+        <v>48.153127902799099</v>
       </c>
       <c r="R12">
-        <v>26.746681336523</v>
+        <v>36.806209008577397</v>
       </c>
       <c r="S12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V12">
-        <v>52.590354221895602</v>
+        <v>63.6882289627886</v>
       </c>
       <c r="W12">
-        <v>48.493301962575003</v>
+        <v>13.7908174374006</v>
       </c>
       <c r="X12">
-        <v>48.493301962575003</v>
+        <v>12.6699139430887</v>
       </c>
       <c r="Y12" t="s">
         <v>107</v>
       </c>
       <c r="Z12" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AA12" t="s">
         <v>78</v>
       </c>
       <c r="AB12" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>82.3937254126688</v>
+        <v>46.2739599487603</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>65.226755463508994</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>65.226755463508994</v>
       </c>
       <c r="D13">
-        <v>21.283404364616601</v>
+        <v>35.472860057272797</v>
       </c>
       <c r="E13">
-        <v>17.536189750650198</v>
+        <v>22.691301950065998</v>
       </c>
       <c r="F13">
-        <v>4.6134863455675799</v>
+        <v>3.3136149071415901</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
         <v>44</v>
       </c>
       <c r="J13">
-        <v>89.446764907697599</v>
+        <v>89.607827210377096</v>
       </c>
       <c r="K13">
-        <v>78.893529815395098</v>
+        <v>35.747488912940703</v>
       </c>
       <c r="L13">
-        <v>42.212940369209697</v>
+        <v>10.2135682608402</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13">
-        <v>100</v>
+        <v>69.1806906886966</v>
       </c>
       <c r="Q13">
-        <v>31.6597052769073</v>
+        <v>58.967122427856403</v>
       </c>
       <c r="R13">
-        <v>21.106470184604799</v>
+        <v>48.753554167016198</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13">
+        <v>49.906885201821297</v>
+      </c>
+      <c r="W13">
+        <v>29.779857974368301</v>
+      </c>
+      <c r="X13">
+        <v>20.200683982413501</v>
       </c>
       <c r="Y13" t="s">
         <v>107</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AA13" t="s">
         <v>78</v>
       </c>
       <c r="AB13" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20.829534221908201</v>
+        <v>47.357672041870103</v>
       </c>
       <c r="B14">
-        <v>30.274558691568899</v>
+        <v>78.271878011228793</v>
       </c>
       <c r="C14">
-        <v>28.823500551432801</v>
+        <v>73.507455428263199</v>
       </c>
       <c r="D14">
-        <v>86.580272145324898</v>
+        <v>29.866924146940399</v>
       </c>
       <c r="E14">
-        <v>39.763541993264397</v>
+        <v>18.590423158036501</v>
       </c>
       <c r="F14">
-        <v>6.8858926161709402</v>
+        <v>3.2067197231737201</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
       <c r="J14">
-        <v>39.4232341736965</v>
+        <v>67.504836330213394</v>
       </c>
       <c r="K14">
-        <v>32.163267249804498</v>
+        <v>20.679136443192299</v>
       </c>
       <c r="L14">
-        <v>11.8639508707393</v>
+        <v>11.7775127363784</v>
       </c>
       <c r="M14" t="s">
         <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P14">
-        <v>47.468978500983098</v>
+        <v>50.078342711983503</v>
       </c>
       <c r="Q14">
-        <v>27.594847466614599</v>
+        <v>35.634359162317601</v>
       </c>
       <c r="R14">
-        <v>25.834761722449201</v>
+        <v>25.130650121470602</v>
       </c>
       <c r="S14" t="s">
         <v>33</v>
@@ -1812,81 +1893,81 @@
         <v>30</v>
       </c>
       <c r="V14">
-        <v>59.1934645935115</v>
+        <v>51.949772764131197</v>
       </c>
       <c r="W14">
-        <v>40.930320732983503</v>
+        <v>37.729768423777102</v>
       </c>
       <c r="X14">
-        <v>31.344084384025098</v>
+        <v>19.1506769858441</v>
       </c>
       <c r="Y14" t="s">
         <v>107</v>
       </c>
       <c r="Z14" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="AA14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28.934459846533201</v>
+        <v>39.196977213688598</v>
       </c>
       <c r="B15">
-        <v>77.046473872155602</v>
+        <v>89.947677088154194</v>
       </c>
       <c r="C15">
-        <v>69.610811327428493</v>
+        <v>85.181906403176797</v>
       </c>
       <c r="D15">
-        <v>59.458459559238797</v>
+        <v>38.106637795917401</v>
       </c>
       <c r="E15">
-        <v>23.372199686294401</v>
+        <v>16.8059845344828</v>
       </c>
       <c r="F15">
-        <v>3.11618307367557</v>
+        <v>2.5122694747541701</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J15">
-        <v>45.4618753931288</v>
+        <v>79.2517546768198</v>
       </c>
       <c r="K15">
-        <v>23.608307356073901</v>
+        <v>34.098093300936803</v>
       </c>
       <c r="L15">
-        <v>20.488731068597101</v>
+        <v>23.215806682013302</v>
       </c>
       <c r="M15" t="s">
         <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P15">
-        <v>64.157255270009202</v>
+        <v>47.070827300959998</v>
       </c>
       <c r="Q15">
-        <v>38.855008170847803</v>
+        <v>27.476599536115302</v>
       </c>
       <c r="R15">
-        <v>34.136325798592601</v>
+        <v>26.746681336523</v>
       </c>
       <c r="S15" t="s">
         <v>30</v>
@@ -1898,30 +1979,30 @@
         <v>32</v>
       </c>
       <c r="V15">
-        <v>71.915800723424894</v>
+        <v>52.590354221895602</v>
       </c>
       <c r="W15">
-        <v>56.446652896199801</v>
+        <v>48.493301962575003</v>
       </c>
       <c r="X15">
-        <v>39.750813655761597</v>
+        <v>48.493301962575003</v>
       </c>
       <c r="Y15" t="s">
         <v>107</v>
       </c>
       <c r="Z15" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="AA15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>49.727537455754003</v>
+        <v>77.300421847107202</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -1930,13 +2011,13 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>19.038033191408498</v>
+        <v>18.689806560849899</v>
       </c>
       <c r="E16">
-        <v>9.46714508609654</v>
+        <v>14.447299313945299</v>
       </c>
       <c r="F16">
-        <v>5.0036055529225401</v>
+        <v>2.7706921542129002</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1948,167 +2029,149 @@
         <v>44</v>
       </c>
       <c r="J16">
-        <v>61.679396805052797</v>
+        <v>74.997956585937402</v>
       </c>
       <c r="K16">
-        <v>35.038190415158397</v>
+        <v>41.122794663055899</v>
       </c>
       <c r="L16">
-        <v>35.038190415158397</v>
+        <v>30.393625556818101</v>
       </c>
       <c r="M16" t="s">
         <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P16">
-        <v>88.320603194947196</v>
+        <v>69.570329248926001</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>32.262327507127701</v>
       </c>
       <c r="R16">
-        <v>38.320603194947203</v>
+        <v>29.214791821192801</v>
       </c>
       <c r="Y16" t="s">
         <v>107</v>
       </c>
       <c r="Z16" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="AA16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>33.109485640932697</v>
+        <v>77.850429595875696</v>
       </c>
       <c r="B17">
-        <v>34.392197269901999</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>32.857240211794497</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>24.601959324967702</v>
+        <v>20.018487505893599</v>
       </c>
       <c r="E17">
-        <v>9.8116073286436105</v>
+        <v>15.5844785219349</v>
       </c>
       <c r="F17">
-        <v>2.6367151365180899</v>
+        <v>4.8700409032704899</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
       <c r="J17">
-        <v>31.243451771148798</v>
+        <v>72.056729777771906</v>
       </c>
       <c r="K17">
-        <v>13.6767624078054</v>
+        <v>40.942816489370998</v>
       </c>
       <c r="L17">
-        <v>10.4745073459419</v>
+        <v>30.3202541328256</v>
       </c>
       <c r="M17" t="s">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17">
-        <v>70.290599011953702</v>
+        <v>63.309480270394701</v>
       </c>
       <c r="Q17">
-        <v>62.3534326092364</v>
+        <v>25.710628457103098</v>
       </c>
       <c r="R17">
-        <v>58.767896061730099</v>
-      </c>
-      <c r="S17" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17">
-        <v>65.998877011363902</v>
-      </c>
-      <c r="W17">
-        <v>31.772226928197</v>
-      </c>
-      <c r="X17">
-        <v>29.803178875537199</v>
+        <v>19.512361682761799</v>
       </c>
       <c r="Y17" t="s">
         <v>107</v>
       </c>
       <c r="Z17" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="AA17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20.333470045948001</v>
+        <v>82.3937254126688</v>
       </c>
       <c r="B18">
-        <v>76.949052931443802</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>69.307152051665796</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>37.7667581493453</v>
+        <v>21.283404364616601</v>
       </c>
       <c r="E18">
-        <v>11.335775423671199</v>
+        <v>17.536189750650198</v>
       </c>
       <c r="F18">
-        <v>2.1912246363667198</v>
+        <v>4.6134863455675799</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J18">
-        <v>59.230940492113199</v>
+        <v>89.446764907697599</v>
       </c>
       <c r="K18">
-        <v>21.984151401262402</v>
+        <v>78.893529815395098</v>
       </c>
       <c r="L18">
-        <v>21.653269540636298</v>
+        <v>42.212940369209697</v>
       </c>
       <c r="M18" t="s">
         <v>30</v>
@@ -2117,134 +2180,116 @@
         <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P18">
-        <v>50.007206293414903</v>
+        <v>100</v>
       </c>
       <c r="Q18">
-        <v>26.110260490827098</v>
+        <v>31.6597052769073</v>
       </c>
       <c r="R18">
-        <v>23.912090896749302</v>
-      </c>
-      <c r="S18" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18">
-        <v>45.252941347916597</v>
-      </c>
-      <c r="W18">
-        <v>36.687320745199102</v>
-      </c>
-      <c r="X18">
-        <v>35.190350205613697</v>
+        <v>21.106470184604799</v>
       </c>
       <c r="Y18" t="s">
         <v>107</v>
       </c>
       <c r="Z18" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="AA18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20.868063029324901</v>
+        <v>95.945199298367896</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
       <c r="C19">
-        <v>95.528923543373296</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>27.875351977151599</v>
+        <v>17.594861479335499</v>
       </c>
       <c r="E19">
-        <v>5.8880758058487102</v>
+        <v>16.881424912620201</v>
       </c>
       <c r="F19">
-        <v>3.8077316502238201</v>
+        <v>4.42983639735548</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
       </c>
       <c r="J19">
-        <v>62.081281600757798</v>
+        <v>57.9786302329655</v>
       </c>
       <c r="K19">
-        <v>48.742457811057101</v>
+        <v>57.9786302329655</v>
       </c>
       <c r="L19">
-        <v>29.2060484136639</v>
+        <v>51.1122788579436</v>
       </c>
       <c r="M19" t="s">
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P19">
-        <v>73.6492881684309</v>
+        <v>80.101593974426393</v>
       </c>
       <c r="Q19">
-        <v>24.392355539440199</v>
+        <v>42.0213697670345</v>
       </c>
       <c r="R19">
-        <v>20.347471177256299</v>
+        <v>28.9893151164827</v>
       </c>
       <c r="Y19" t="s">
         <v>107</v>
       </c>
       <c r="Z19" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="AA19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>26.106857327433101</v>
+        <v>32.403053897703003</v>
       </c>
       <c r="B20">
-        <v>34.058237651450398</v>
+        <v>30.232342285360801</v>
       </c>
       <c r="C20">
-        <v>32.274170498555698</v>
+        <v>28.720272967616999</v>
       </c>
       <c r="D20">
-        <v>62.563514431837298</v>
+        <v>43.796776112490001</v>
       </c>
       <c r="E20">
-        <v>23.2292793940302</v>
+        <v>19.572046813199702</v>
       </c>
       <c r="F20">
-        <v>2.8686022338450501</v>
+        <v>2.7600516517759002</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -2252,32 +2297,35 @@
       <c r="H20" t="s">
         <v>35</v>
       </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
       <c r="J20">
-        <v>38.876003627561197</v>
+        <v>77.288025681808406</v>
       </c>
       <c r="K20">
-        <v>32.550265182900901</v>
+        <v>36.510925668020398</v>
       </c>
       <c r="L20">
-        <v>20.286542707109099</v>
+        <v>10.567432305933799</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P20">
-        <v>58.512426579237797</v>
+        <v>39.100496310409497</v>
       </c>
       <c r="Q20">
-        <v>51.6383880291731</v>
+        <v>34.958802493617</v>
       </c>
       <c r="R20">
-        <v>31.3324736706241</v>
+        <v>31.936558445620499</v>
       </c>
       <c r="S20" t="s">
         <v>33</v>
@@ -2286,25 +2334,25 @@
         <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V20">
-        <v>59.887915907442498</v>
+        <v>49.970957478410902</v>
       </c>
       <c r="W20">
-        <v>29.012835697921599</v>
+        <v>27.509307924528802</v>
       </c>
       <c r="X20">
-        <v>26.033514112452199</v>
+        <v>26.6157871353297</v>
       </c>
       <c r="Y20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z20" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AA20" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AB20" t="s">
         <v>34</v>
@@ -2312,22 +2360,22 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>34.457553560303602</v>
+        <v>14.2505158989268</v>
       </c>
       <c r="B21">
-        <v>88.005840722504004</v>
+        <v>11.2511301610886</v>
       </c>
       <c r="C21">
-        <v>77.153114328402495</v>
+        <v>11.2511301610886</v>
       </c>
       <c r="D21">
-        <v>38.402985630985697</v>
+        <v>25.340914824586701</v>
       </c>
       <c r="E21">
-        <v>16.769928941289301</v>
+        <v>17.483678172248901</v>
       </c>
       <c r="F21">
-        <v>-0.826470310036022</v>
+        <v>0.95927113574039902</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
@@ -2335,153 +2383,150 @@
       <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
       <c r="J21">
-        <v>61.574293517684602</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>24.814327968450399</v>
-      </c>
-      <c r="L21">
-        <v>17.773584548688</v>
+        <v>71.246672269132006</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P21">
-        <v>75.096598183428398</v>
+        <v>71.246672269132006</v>
       </c>
       <c r="Q21">
-        <v>51.533708034825402</v>
+        <v>64.535246684837006</v>
       </c>
       <c r="R21">
-        <v>38.026514178378299</v>
+        <v>64.535246684837006</v>
       </c>
       <c r="S21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="U21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V21">
-        <v>77.355750039262503</v>
+        <v>40.314218705434001</v>
       </c>
       <c r="W21">
-        <v>34.604160630688298</v>
+        <v>20.824540821393501</v>
       </c>
       <c r="X21">
-        <v>26.211046186124499</v>
+        <v>20.824540821393501</v>
       </c>
       <c r="Y21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z21" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AA21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AB21" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>75.628363905225001</v>
+        <v>9.848887932597</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>41.345237261336898</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>41.345237261336898</v>
       </c>
       <c r="D22">
-        <v>52.459703475680797</v>
+        <v>279.85823617003302</v>
       </c>
       <c r="E22">
-        <v>39.674415448189798</v>
+        <v>73.496450470147593</v>
       </c>
       <c r="F22">
-        <v>5.16244562113868</v>
+        <v>3.5519368078106899</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="H22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
       <c r="J22">
-        <v>90.358444815326393</v>
+        <v>90.252556797029499</v>
       </c>
       <c r="K22">
-        <v>38.585312171082599</v>
-      </c>
-      <c r="L22">
-        <v>29.0789734059497</v>
+        <v>18.523579425432999</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P22">
-        <v>58.022730392358703</v>
+        <v>19.494886405941099</v>
       </c>
       <c r="Q22">
-        <v>28.943756986408999</v>
-      </c>
-      <c r="R22">
-        <v>28.943756986408999</v>
+        <v>9.7474432029705298</v>
+      </c>
+      <c r="S22" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22">
+        <v>78.8059546515574</v>
+      </c>
+      <c r="W22">
+        <v>57.0679481524746</v>
+      </c>
+      <c r="X22">
+        <v>29.190274262852899</v>
       </c>
       <c r="Y22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z22" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AA22" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AB22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>78.707815638248505</v>
+        <v>12.120705860896001</v>
       </c>
       <c r="B23">
-        <v>22.207848022123901</v>
+        <v>50.283934378048997</v>
       </c>
       <c r="C23">
-        <v>21.8418449540087</v>
+        <v>39.632029129938601</v>
       </c>
       <c r="D23">
-        <v>24.219535339618002</v>
+        <v>33.455513235965299</v>
       </c>
       <c r="E23">
-        <v>20.969799561261802</v>
+        <v>9.5570614546119099</v>
       </c>
       <c r="F23">
-        <v>4.1581578335004501</v>
+        <v>1.3504630277813501</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -2493,99 +2538,99 @@
         <v>28</v>
       </c>
       <c r="J23">
-        <v>45.459039781734297</v>
+        <v>45.920836358412998</v>
       </c>
       <c r="K23">
-        <v>23.3919898233287</v>
+        <v>22.427692104947099</v>
       </c>
       <c r="L23">
-        <v>18.3223901461743</v>
+        <v>13.7481564115783</v>
       </c>
       <c r="M23" t="s">
         <v>30</v>
       </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s">
         <v>31</v>
       </c>
       <c r="P23">
-        <v>64.625640416435104</v>
+        <v>49.489108901043203</v>
       </c>
       <c r="Q23">
-        <v>39.293115802006803</v>
+        <v>36.791003984333997</v>
       </c>
       <c r="R23">
-        <v>36.262318195713902</v>
+        <v>36.613599788939403</v>
       </c>
       <c r="S23" t="s">
         <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U23" t="s">
         <v>30</v>
       </c>
       <c r="V23">
-        <v>60.878450964546701</v>
+        <v>73.765173179426995</v>
       </c>
       <c r="W23">
-        <v>27.533003787746601</v>
+        <v>50.5201989571786</v>
       </c>
       <c r="X23">
-        <v>21.255402434108799</v>
+        <v>44.281078164354803</v>
       </c>
       <c r="Y23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z23" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AA23" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AB23" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>38.041473363092599</v>
+        <v>19.8987457849496</v>
       </c>
       <c r="B24">
-        <v>74.160632446214294</v>
+        <v>63.164601917304701</v>
       </c>
       <c r="C24">
-        <v>66.387604621429205</v>
+        <v>60.568985045490599</v>
       </c>
       <c r="D24">
-        <v>29.011806962330699</v>
+        <v>55.730648280860699</v>
       </c>
       <c r="E24">
-        <v>14.6370794251061</v>
+        <v>16.055831961017599</v>
       </c>
       <c r="F24">
-        <v>2.2165668605826299</v>
+        <v>2.0489226726599599</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
         <v>28</v>
       </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
       <c r="J24">
-        <v>68.968854995668494</v>
+        <v>64.306683223334801</v>
       </c>
       <c r="K24">
-        <v>33.681924969896698</v>
+        <v>55.687065496097702</v>
       </c>
       <c r="L24">
-        <v>23.447238071906298</v>
+        <v>29.1095516076746</v>
       </c>
       <c r="M24" t="s">
         <v>30</v>
@@ -2594,134 +2639,152 @@
         <v>31</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P24">
-        <v>77.086234414300606</v>
+        <v>55.237170644590798</v>
       </c>
       <c r="Q24">
-        <v>53.728691944600897</v>
+        <v>53.866029563894003</v>
       </c>
       <c r="R24">
-        <v>38.539782563868897</v>
+        <v>47.302685311860202</v>
       </c>
       <c r="S24" t="s">
         <v>30</v>
       </c>
       <c r="T24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" t="s">
         <v>33</v>
       </c>
-      <c r="U24" t="s">
-        <v>94</v>
-      </c>
       <c r="V24">
-        <v>42.516754686107298</v>
+        <v>75.681080213825496</v>
       </c>
       <c r="W24">
-        <v>20.7993587679087</v>
+        <v>61.5880229541375</v>
       </c>
       <c r="X24">
-        <v>18.1785151620902</v>
+        <v>32.203406402257798</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z24" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AA24" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AB24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>84.093441299856195</v>
+        <v>47.605247497315098</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>89.903425770896902</v>
       </c>
       <c r="C25">
-        <v>96.703928323177294</v>
+        <v>89.903425770896902</v>
       </c>
       <c r="D25">
-        <v>20.783070816713199</v>
+        <v>49.275685254462701</v>
       </c>
       <c r="E25">
-        <v>18.119253850775301</v>
+        <v>24.656395260579298</v>
       </c>
       <c r="F25">
-        <v>4.0054249274953397</v>
+        <v>4.1139799048194003</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
       <c r="J25">
-        <v>65.520137499688104</v>
+        <v>78.990650724322506</v>
       </c>
       <c r="K25">
-        <v>58.519918726460801</v>
+        <v>50.087131968878502</v>
       </c>
       <c r="L25">
-        <v>31.027451033978</v>
+        <v>16.420664810359899</v>
       </c>
       <c r="M25" t="s">
         <v>30</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P25">
-        <v>75.994684743856894</v>
+        <v>64.692946929787496</v>
       </c>
       <c r="Q25">
-        <v>37.094369107288102</v>
+        <v>62.569985913962597</v>
       </c>
       <c r="R25">
-        <v>26.1258227578634</v>
+        <v>57.379787732129699</v>
+      </c>
+      <c r="S25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25">
+        <v>53.784661372403498</v>
+      </c>
+      <c r="W25">
+        <v>53.784661372403498</v>
+      </c>
+      <c r="X25">
+        <v>53.784661372403498</v>
       </c>
       <c r="Y25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z25" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AA25" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AB25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>36.994628561640297</v>
+        <v>48.7051314861991</v>
       </c>
       <c r="B26">
-        <v>23.1360159313625</v>
+        <v>100</v>
       </c>
       <c r="C26">
-        <v>22.148745647767999</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>31.5296480788131</v>
+        <v>15.522527152620301</v>
       </c>
       <c r="E26">
-        <v>18.347682021870298</v>
+        <v>7.5602672596646903</v>
       </c>
       <c r="F26">
-        <v>2.3288103917431799</v>
+        <v>2.2525385886282501</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -2729,100 +2792,85 @@
       <c r="H26" t="s">
         <v>28</v>
       </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
       <c r="J26">
-        <v>43.959763137550297</v>
+        <v>82.019654177039996</v>
       </c>
       <c r="K26">
-        <v>12.9883547417658</v>
+        <v>66.556752117210806</v>
       </c>
       <c r="L26">
-        <v>11.3840934113059</v>
+        <v>39.081463203772302</v>
       </c>
       <c r="M26" t="s">
         <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="P26">
-        <v>45.149064018555102</v>
+        <v>90.329331885533904</v>
       </c>
       <c r="Q26">
-        <v>26.3786578818554</v>
+        <v>53.955463696377301</v>
       </c>
       <c r="R26">
-        <v>24.984772818926299</v>
-      </c>
-      <c r="S26" t="s">
-        <v>33</v>
-      </c>
-      <c r="T26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U26" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26">
-        <v>51.927123534584602</v>
-      </c>
-      <c r="W26">
-        <v>40.575544699339197</v>
-      </c>
-      <c r="X26">
-        <v>34.795070197658198</v>
+        <v>39.509542611602598</v>
       </c>
       <c r="Y26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z26" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AA26" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="AB26" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>44.858352234900202</v>
+        <v>44.908029252751199</v>
       </c>
       <c r="B27">
-        <v>89.862294975198495</v>
+        <v>100</v>
       </c>
       <c r="C27">
-        <v>84.9879171611869</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>12.7912734608718</v>
+        <v>17.537614119050001</v>
       </c>
       <c r="E27">
-        <v>6.6977697755588999</v>
+        <v>7.8757968788175798</v>
       </c>
       <c r="F27">
-        <v>1.78086875725748</v>
+        <v>2.7419889427412198</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J27">
-        <v>48.484736078986103</v>
+        <v>70.842443053017107</v>
       </c>
       <c r="K27">
-        <v>33.491196907611197</v>
+        <v>69.638952977278393</v>
       </c>
       <c r="L27">
-        <v>17.206132272074601</v>
+        <v>40.4813960302955</v>
       </c>
       <c r="M27" t="s">
         <v>30</v>
@@ -2831,170 +2879,152 @@
         <v>31</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P27">
-        <v>74.578929068883298</v>
+        <v>80.962792060590999</v>
       </c>
       <c r="Q27">
-        <v>50.682780914696899</v>
+        <v>50.601745037869399</v>
       </c>
       <c r="R27">
-        <v>45.7135061259564</v>
-      </c>
-      <c r="S27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" t="s">
-        <v>30</v>
-      </c>
-      <c r="V27">
-        <v>100</v>
-      </c>
-      <c r="W27">
-        <v>68.997762120693096</v>
-      </c>
-      <c r="X27">
-        <v>44.9505792867282</v>
+        <v>30.3610470227216</v>
       </c>
       <c r="Y27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z27" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AA27" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="AB27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>64.0289988032211</v>
+        <v>54.704061467866502</v>
       </c>
       <c r="B28">
         <v>100</v>
       </c>
       <c r="C28">
-        <v>95.732460327755604</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="D28">
-        <v>16.7737713992978</v>
+        <v>18.5508148948268</v>
       </c>
       <c r="E28">
-        <v>11.309565950739801</v>
+        <v>12.834255354794401</v>
       </c>
       <c r="F28">
-        <v>3.3977102738037499</v>
+        <v>2.93349299215302</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
       </c>
       <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
         <v>28</v>
       </c>
-      <c r="I28" t="s">
-        <v>35</v>
-      </c>
       <c r="J28">
-        <v>93.817350095201107</v>
+        <v>79.810806642331997</v>
       </c>
       <c r="K28">
-        <v>65.086203659250401</v>
+        <v>59.621613284664001</v>
       </c>
       <c r="L28">
-        <v>25.623879505272502</v>
+        <v>40.378386715335999</v>
       </c>
       <c r="M28" t="s">
         <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P28">
-        <v>82.643937100664402</v>
+        <v>83.175672201943399</v>
       </c>
       <c r="Q28">
-        <v>35.408960757100999</v>
+        <v>33.4909944647233</v>
       </c>
       <c r="R28">
-        <v>29.967460663238398</v>
+        <v>16.8243277980567</v>
       </c>
       <c r="Y28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z28" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AA28" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="AB28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>46.766279750069899</v>
+        <v>14.286113602211399</v>
       </c>
       <c r="B29">
-        <v>42.2246179359012</v>
+        <v>18.995442511504699</v>
       </c>
       <c r="C29">
-        <v>40.920349541197901</v>
+        <v>17.6941932595665</v>
       </c>
       <c r="D29">
-        <v>30.513362424746902</v>
+        <v>30.955639992262299</v>
       </c>
       <c r="E29">
-        <v>17.736831906048501</v>
+        <v>13.135202063897101</v>
       </c>
       <c r="F29">
-        <v>2.9057729134139501</v>
+        <v>1.49288543364412</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
         <v>29</v>
       </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
       <c r="J29">
-        <v>56.868960221335797</v>
+        <v>47.4734249781241</v>
       </c>
       <c r="K29">
-        <v>15.2290407824122</v>
+        <v>26.971612966237</v>
       </c>
       <c r="L29">
-        <v>12.411709873788199</v>
+        <v>11.274131158107901</v>
       </c>
       <c r="M29" t="s">
         <v>30</v>
       </c>
       <c r="N29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P29">
-        <v>54.201644030039503</v>
+        <v>57.465342644935099</v>
       </c>
       <c r="Q29">
-        <v>41.607851120522596</v>
+        <v>47.202217643068103</v>
       </c>
       <c r="R29">
-        <v>38.565664900876399</v>
+        <v>37.258284636947799</v>
       </c>
       <c r="S29" t="s">
         <v>33</v>
@@ -3003,25 +3033,25 @@
         <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V29">
-        <v>67.157075454100607</v>
+        <v>61.2414347734993</v>
       </c>
       <c r="W29">
-        <v>37.570615564131998</v>
+        <v>32.658414436944803</v>
       </c>
       <c r="X29">
-        <v>31.5400490865877</v>
+        <v>28.321061748499101</v>
       </c>
       <c r="Y29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z29" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AA29" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB29" t="s">
         <v>34</v>
@@ -3029,194 +3059,212 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>37.617326200226699</v>
+        <v>9.5012847070517292</v>
       </c>
       <c r="B30">
-        <v>88.710363667238795</v>
+        <v>14.7070477298382</v>
       </c>
       <c r="C30">
-        <v>81.934290907313894</v>
+        <v>14.7070477298382</v>
       </c>
       <c r="D30">
-        <v>32.4279127933384</v>
+        <v>40.498653647992903</v>
       </c>
       <c r="E30">
-        <v>13.9955881721806</v>
+        <v>18.888177229135401</v>
       </c>
       <c r="F30">
-        <v>2.7714244289737899</v>
+        <v>1.5759272855428399</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30">
-        <v>70.752392846020697</v>
+        <v>48.030697474209902</v>
       </c>
       <c r="K30">
-        <v>17.1383541377445</v>
+        <v>20.040516715264101</v>
       </c>
       <c r="L30">
-        <v>16.370320783506099</v>
+        <v>14.935277919458899</v>
       </c>
       <c r="M30" t="s">
         <v>30</v>
       </c>
       <c r="N30" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O30" t="s">
         <v>31</v>
       </c>
       <c r="P30">
-        <v>56.999775121326401</v>
+        <v>56.994090176041702</v>
       </c>
       <c r="Q30">
-        <v>41.937525308887103</v>
+        <v>43.542091095904503</v>
       </c>
       <c r="R30">
-        <v>34.584094882662001</v>
+        <v>42.139263402136301</v>
       </c>
       <c r="S30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U30" t="s">
         <v>31</v>
       </c>
       <c r="V30">
-        <v>67.776562211520101</v>
+        <v>58.461403534307202</v>
       </c>
       <c r="W30">
-        <v>54.853278761329101</v>
+        <v>29.3544519978572</v>
       </c>
       <c r="X30">
-        <v>47.427022394841899</v>
+        <v>26.7317528751061</v>
       </c>
       <c r="Y30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z30" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AA30" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB30" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>64.130221068406101</v>
+        <v>8.5202073507446396</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>36.937916270135098</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>27.520085979099601</v>
       </c>
       <c r="D31">
-        <v>17.3672806601672</v>
+        <v>46.320798082000202</v>
       </c>
       <c r="E31">
-        <v>11.137675480935799</v>
+        <v>13.1685986088265</v>
       </c>
       <c r="F31">
-        <v>3.5235474104166</v>
+        <v>1.0879058392026799</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
         <v>28</v>
       </c>
-      <c r="I31" t="s">
-        <v>99</v>
-      </c>
       <c r="J31">
-        <v>74.613932045953504</v>
+        <v>46.388537580760001</v>
       </c>
       <c r="K31">
-        <v>43.026305965937901</v>
+        <v>36.500632354632003</v>
       </c>
       <c r="L31">
-        <v>30.992508739579598</v>
+        <v>17.110830064607999</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P31">
-        <v>73.561166256028997</v>
+        <v>65.438858723620697</v>
       </c>
       <c r="Q31">
-        <v>37.182234397802802</v>
+        <v>56.374094184252897</v>
       </c>
       <c r="R31">
-        <v>27.384157968029101</v>
+        <v>47.309329644884997</v>
+      </c>
+      <c r="S31" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31">
+        <v>87.223304710848595</v>
+      </c>
+      <c r="W31">
+        <v>62.328484173961499</v>
+      </c>
+      <c r="X31">
+        <v>41.318596595760198</v>
       </c>
       <c r="Y31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z31" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AA31" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AB31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>41.103334739611</v>
+        <v>21.180077257842601</v>
       </c>
       <c r="B32">
-        <v>33.123659262120199</v>
+        <v>47.952412115539197</v>
       </c>
       <c r="C32">
-        <v>31.657458176214099</v>
+        <v>44.549395936620002</v>
       </c>
       <c r="D32">
-        <v>27.3565901967653</v>
+        <v>16.6841451084833</v>
       </c>
       <c r="E32">
-        <v>12.746028848572999</v>
+        <v>6.4190504624841704</v>
       </c>
       <c r="F32">
-        <v>3.01106443336209</v>
+        <v>1.1584727246675901</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J32">
-        <v>63.010865458160602</v>
+        <v>48.2498671564178</v>
       </c>
       <c r="K32">
-        <v>23.0309405372881</v>
+        <v>46.135816573691997</v>
       </c>
       <c r="L32">
-        <v>18.233270372820801</v>
+        <v>11.5868068742096</v>
       </c>
       <c r="M32" t="s">
         <v>30</v>
@@ -3228,63 +3276,63 @@
         <v>32</v>
       </c>
       <c r="P32">
-        <v>79.708013183777396</v>
+        <v>57.405718799536601</v>
       </c>
       <c r="Q32">
-        <v>51.4525395634383</v>
+        <v>38.296910924114698</v>
       </c>
       <c r="R32">
-        <v>35.668863561951298</v>
+        <v>35.913924422600502</v>
       </c>
       <c r="S32" t="s">
         <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V32">
-        <v>45.974814249550597</v>
+        <v>59.261570958670902</v>
       </c>
       <c r="W32">
-        <v>34.478208580834902</v>
+        <v>32.341671410961403</v>
       </c>
       <c r="X32">
-        <v>31.2898693857864</v>
+        <v>31.8876273802768</v>
       </c>
       <c r="Y32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z32" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="AA32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB32" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31.425138276412198</v>
+        <v>30.958218039285399</v>
       </c>
       <c r="B33">
-        <v>89.128242820305303</v>
+        <v>70.620248991605195</v>
       </c>
       <c r="C33">
-        <v>80.646846136684005</v>
+        <v>68.784546423777897</v>
       </c>
       <c r="D33">
-        <v>31.810519809235299</v>
+        <v>30.9166604343011</v>
       </c>
       <c r="E33">
-        <v>11.6912102077887</v>
+        <v>13.774788594840899</v>
       </c>
       <c r="F33">
-        <v>2.6185360829672901</v>
+        <v>1.74632369899856</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
@@ -3296,99 +3344,96 @@
         <v>28</v>
       </c>
       <c r="J33">
-        <v>69.827447743413799</v>
+        <v>58.652679210506697</v>
       </c>
       <c r="K33">
-        <v>25.802715580841198</v>
+        <v>39.694371990857803</v>
       </c>
       <c r="L33">
-        <v>22.912602272695899</v>
+        <v>11.7595298268054</v>
       </c>
       <c r="M33" t="s">
         <v>30</v>
       </c>
       <c r="N33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P33">
-        <v>80.391077844004897</v>
+        <v>63.905657873142097</v>
       </c>
       <c r="Q33">
-        <v>50.655748463498</v>
+        <v>40.205702643803498</v>
       </c>
       <c r="R33">
-        <v>38.985885245282297</v>
+        <v>39.740318890839603</v>
       </c>
       <c r="S33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V33">
-        <v>73.742517841471496</v>
+        <v>55.063361501094697</v>
       </c>
       <c r="W33">
-        <v>52.013079779947603</v>
+        <v>54.075658915964297</v>
       </c>
       <c r="X33">
-        <v>49.709825275801101</v>
+        <v>50.366391312272398</v>
       </c>
       <c r="Y33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z33" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="AA33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>48.130890531637199</v>
+        <v>44.046730904378002</v>
       </c>
       <c r="B34">
-        <v>99.508339605467697</v>
+        <v>93.206225792840499</v>
       </c>
       <c r="C34">
-        <v>96.826009464083</v>
+        <v>78.555405699086506</v>
       </c>
       <c r="D34">
-        <v>25.8039181402502</v>
+        <v>10.1426409872428</v>
       </c>
       <c r="E34">
-        <v>13.126665220113599</v>
+        <v>4.9977613514041899</v>
       </c>
       <c r="F34">
-        <v>3.7733059911554401</v>
+        <v>1.6238912372969401</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" t="s">
         <v>35</v>
       </c>
       <c r="J34">
-        <v>83.692368794842494</v>
+        <v>82.703229276967505</v>
       </c>
       <c r="K34">
-        <v>46.655001730918798</v>
+        <v>53.243843055957001</v>
       </c>
       <c r="L34">
-        <v>37.656564204863798</v>
+        <v>17.296770723032498</v>
       </c>
       <c r="M34" t="s">
         <v>30</v>
@@ -3397,25 +3442,25 @@
         <v>31</v>
       </c>
       <c r="O34" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P34">
-        <v>87.562476276461297</v>
+        <v>82.460220853109703</v>
       </c>
       <c r="Q34">
-        <v>49.095347729831403</v>
+        <v>52.163566023597198</v>
       </c>
       <c r="R34">
-        <v>30.4677752226774</v>
+        <v>30.296654829512502</v>
       </c>
       <c r="S34" t="s">
         <v>33</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="U34" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V34">
         <v>100</v>
@@ -3427,291 +3472,273 @@
         <v>100</v>
       </c>
       <c r="Y34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z34" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="AA34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB34" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>14.286113602211399</v>
+        <v>43.171982438850598</v>
       </c>
       <c r="B35">
-        <v>18.995442511504699</v>
+        <v>100</v>
       </c>
       <c r="C35">
-        <v>17.6941932595665</v>
+        <v>100</v>
       </c>
       <c r="D35">
-        <v>30.955639992262299</v>
+        <v>29.4952809714597</v>
       </c>
       <c r="E35">
-        <v>13.135202063897101</v>
+        <v>12.7336975212882</v>
       </c>
       <c r="F35">
-        <v>1.49288543364412</v>
+        <v>3.4654304615904898</v>
       </c>
       <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" t="s">
-        <v>27</v>
-      </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35">
-        <v>47.4734249781241</v>
+        <v>88.831033746442301</v>
       </c>
       <c r="K35">
-        <v>26.971612966237</v>
+        <v>43.541507438711399</v>
       </c>
       <c r="L35">
-        <v>11.274131158107901</v>
+        <v>32.3725411851537</v>
       </c>
       <c r="M35" t="s">
         <v>30</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P35">
-        <v>57.465342644935099</v>
+        <v>88.831033746442301</v>
       </c>
       <c r="Q35">
-        <v>47.202217643068103</v>
+        <v>33.506898760673202</v>
       </c>
       <c r="R35">
-        <v>37.258284636947799</v>
-      </c>
-      <c r="S35" t="s">
-        <v>33</v>
-      </c>
-      <c r="T35" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35" t="s">
-        <v>31</v>
-      </c>
-      <c r="V35">
-        <v>61.2414347734993</v>
-      </c>
-      <c r="W35">
-        <v>32.658414436944803</v>
-      </c>
-      <c r="X35">
-        <v>28.321061748499101</v>
+        <v>32.3725411851537</v>
       </c>
       <c r="Y35" t="s">
         <v>109</v>
       </c>
       <c r="Z35" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="AA35" t="s">
         <v>89</v>
       </c>
       <c r="AB35" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30.958218039285399</v>
+        <v>60.298925735637503</v>
       </c>
       <c r="B36">
-        <v>70.620248991605195</v>
+        <v>100</v>
       </c>
       <c r="C36">
-        <v>68.784546423777897</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>30.9166604343011</v>
+        <v>14.6281951975213</v>
       </c>
       <c r="E36">
-        <v>13.774788594840899</v>
+        <v>8.8206445586174702</v>
       </c>
       <c r="F36">
-        <v>1.74632369899856</v>
+        <v>2.06706283902757</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J36">
-        <v>58.652679210506697</v>
+        <v>100</v>
       </c>
       <c r="K36">
-        <v>39.694371990857803</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="L36">
-        <v>11.7595298268054</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="M36" t="s">
         <v>30</v>
       </c>
       <c r="N36" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
       </c>
       <c r="P36">
-        <v>63.905657873142097</v>
+        <v>100</v>
       </c>
       <c r="Q36">
-        <v>40.205702643803498</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="R36">
-        <v>39.740318890839603</v>
-      </c>
-      <c r="S36" t="s">
-        <v>33</v>
-      </c>
-      <c r="T36" t="s">
-        <v>31</v>
-      </c>
-      <c r="U36" t="s">
-        <v>30</v>
-      </c>
-      <c r="V36">
-        <v>55.063361501094697</v>
-      </c>
-      <c r="W36">
-        <v>54.075658915964297</v>
-      </c>
-      <c r="X36">
-        <v>50.366391312272398</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="Y36" t="s">
         <v>109</v>
       </c>
       <c r="Z36" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="AA36" t="s">
         <v>89</v>
       </c>
       <c r="AB36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>60.298925735637503</v>
+        <v>59.723125028295598</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>43.106534321176603</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>42.798148103636002</v>
       </c>
       <c r="D37">
-        <v>14.6281951975213</v>
+        <v>22.9854429521782</v>
       </c>
       <c r="E37">
-        <v>8.8206445586174702</v>
+        <v>17.146153248222401</v>
       </c>
       <c r="F37">
-        <v>2.06706283902757</v>
+        <v>3.3655409243145802</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>72.931561534788102</v>
       </c>
       <c r="K37">
-        <v>66.6666666666667</v>
+        <v>28.418075940294301</v>
       </c>
       <c r="L37">
-        <v>33.3333333333333</v>
+        <v>11.2691802761817</v>
       </c>
       <c r="M37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N37" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37">
-        <v>100</v>
+        <v>45.801595574074902</v>
       </c>
       <c r="Q37">
-        <v>66.6666666666667</v>
+        <v>45.16087247422</v>
       </c>
       <c r="R37">
-        <v>33.3333333333333</v>
+        <v>43.312266931577099</v>
+      </c>
+      <c r="S37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" t="s">
+        <v>30</v>
+      </c>
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37">
+        <v>61.7553959138978</v>
+      </c>
+      <c r="W37">
+        <v>15.009876762490601</v>
+      </c>
+      <c r="X37">
+        <v>14.474246536958301</v>
       </c>
       <c r="Y37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>14.286113602211399</v>
+        <v>39.196977213688598</v>
       </c>
       <c r="B38">
-        <v>18.995442511504699</v>
+        <v>89.947677088154194</v>
       </c>
       <c r="C38">
-        <v>17.6941932595665</v>
+        <v>85.181906403176797</v>
       </c>
       <c r="D38">
-        <v>30.955639992262299</v>
+        <v>38.106637795917401</v>
       </c>
       <c r="E38">
-        <v>13.135202063897101</v>
+        <v>16.8059845344828</v>
       </c>
       <c r="F38">
-        <v>1.49288543364412</v>
+        <v>2.5122694747541701</v>
       </c>
       <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
       <c r="J38">
-        <v>47.4734249781241</v>
+        <v>79.2517546768198</v>
       </c>
       <c r="K38">
-        <v>26.971612966237</v>
+        <v>34.098093300936803</v>
       </c>
       <c r="L38">
-        <v>11.274131158107901</v>
+        <v>23.215806682013302</v>
       </c>
       <c r="M38" t="s">
         <v>30</v>
@@ -3720,188 +3747,170 @@
         <v>31</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P38">
-        <v>57.465342644935099</v>
+        <v>47.070827300959998</v>
       </c>
       <c r="Q38">
-        <v>47.202217643068103</v>
+        <v>27.476599536115302</v>
       </c>
       <c r="R38">
-        <v>37.258284636947799</v>
+        <v>26.746681336523</v>
       </c>
       <c r="S38" t="s">
+        <v>30</v>
+      </c>
+      <c r="T38" t="s">
         <v>33</v>
       </c>
-      <c r="T38" t="s">
-        <v>32</v>
-      </c>
       <c r="U38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V38">
-        <v>61.2414347734993</v>
+        <v>52.590354221895602</v>
       </c>
       <c r="W38">
-        <v>32.658414436944803</v>
+        <v>48.493301962575003</v>
       </c>
       <c r="X38">
-        <v>28.321061748499101</v>
+        <v>48.493301962575003</v>
       </c>
       <c r="Y38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z38" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9.5012847070517292</v>
+        <v>82.3937254126688</v>
       </c>
       <c r="B39">
-        <v>14.7070477298382</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>14.7070477298382</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>40.498653647992903</v>
+        <v>21.283404364616601</v>
       </c>
       <c r="E39">
-        <v>18.888177229135401</v>
+        <v>17.536189750650198</v>
       </c>
       <c r="F39">
-        <v>1.5759272855428399</v>
+        <v>4.6134863455675799</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J39">
-        <v>48.030697474209902</v>
+        <v>89.446764907697599</v>
       </c>
       <c r="K39">
-        <v>20.040516715264101</v>
+        <v>78.893529815395098</v>
       </c>
       <c r="L39">
-        <v>14.935277919458899</v>
+        <v>42.212940369209697</v>
       </c>
       <c r="M39" t="s">
         <v>30</v>
       </c>
       <c r="N39" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P39">
-        <v>56.994090176041702</v>
+        <v>100</v>
       </c>
       <c r="Q39">
-        <v>43.542091095904503</v>
+        <v>31.6597052769073</v>
       </c>
       <c r="R39">
-        <v>42.139263402136301</v>
-      </c>
-      <c r="S39" t="s">
-        <v>33</v>
-      </c>
-      <c r="T39" t="s">
-        <v>32</v>
-      </c>
-      <c r="U39" t="s">
-        <v>31</v>
-      </c>
-      <c r="V39">
-        <v>58.461403534307202</v>
-      </c>
-      <c r="W39">
-        <v>29.3544519978572</v>
-      </c>
-      <c r="X39">
-        <v>26.7317528751061</v>
+        <v>21.106470184604799</v>
       </c>
       <c r="Y39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z39" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>8.5202073507446396</v>
+        <v>20.829534221908201</v>
       </c>
       <c r="B40">
-        <v>36.937916270135098</v>
+        <v>30.274558691568899</v>
       </c>
       <c r="C40">
-        <v>27.520085979099601</v>
+        <v>28.823500551432801</v>
       </c>
       <c r="D40">
-        <v>46.320798082000202</v>
+        <v>86.580272145324898</v>
       </c>
       <c r="E40">
-        <v>13.1685986088265</v>
+        <v>39.763541993264397</v>
       </c>
       <c r="F40">
-        <v>1.0879058392026799</v>
+        <v>6.8858926161709402</v>
       </c>
       <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" t="s">
-        <v>27</v>
-      </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J40">
-        <v>46.388537580760001</v>
+        <v>39.4232341736965</v>
       </c>
       <c r="K40">
-        <v>36.500632354632003</v>
+        <v>32.163267249804498</v>
       </c>
       <c r="L40">
-        <v>17.110830064607999</v>
+        <v>11.8639508707393</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O40" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P40">
-        <v>65.438858723620697</v>
+        <v>47.468978500983098</v>
       </c>
       <c r="Q40">
-        <v>56.374094184252897</v>
+        <v>27.594847466614599</v>
       </c>
       <c r="R40">
-        <v>47.309329644884997</v>
+        <v>25.834761722449201</v>
       </c>
       <c r="S40" t="s">
         <v>33</v>
@@ -3910,220 +3919,202 @@
         <v>32</v>
       </c>
       <c r="U40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V40">
-        <v>87.223304710848595</v>
+        <v>59.1934645935115</v>
       </c>
       <c r="W40">
-        <v>62.328484173961499</v>
+        <v>40.930320732983503</v>
       </c>
       <c r="X40">
-        <v>41.318596595760198</v>
+        <v>31.344084384025098</v>
       </c>
       <c r="Y40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z40" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AA40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>21.180077257842601</v>
+        <v>28.934459846533201</v>
       </c>
       <c r="B41">
-        <v>47.952412115539197</v>
+        <v>77.046473872155602</v>
       </c>
       <c r="C41">
-        <v>44.549395936620002</v>
+        <v>69.610811327428493</v>
       </c>
       <c r="D41">
-        <v>16.6841451084833</v>
+        <v>59.458459559238797</v>
       </c>
       <c r="E41">
-        <v>6.4190504624841704</v>
+        <v>23.372199686294401</v>
       </c>
       <c r="F41">
-        <v>1.1584727246675901</v>
+        <v>3.11618307367557</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I41" t="s">
         <v>29</v>
       </c>
       <c r="J41">
-        <v>48.2498671564178</v>
+        <v>45.4618753931288</v>
       </c>
       <c r="K41">
-        <v>46.135816573691997</v>
+        <v>23.608307356073901</v>
       </c>
       <c r="L41">
-        <v>11.5868068742096</v>
+        <v>20.488731068597101</v>
       </c>
       <c r="M41" t="s">
         <v>30</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O41" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P41">
-        <v>57.405718799536601</v>
+        <v>64.157255270009202</v>
       </c>
       <c r="Q41">
-        <v>38.296910924114698</v>
+        <v>38.855008170847803</v>
       </c>
       <c r="R41">
-        <v>35.913924422600502</v>
+        <v>34.136325798592601</v>
       </c>
       <c r="S41" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" t="s">
         <v>33</v>
       </c>
-      <c r="T41" t="s">
-        <v>32</v>
-      </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V41">
-        <v>59.261570958670902</v>
+        <v>71.915800723424894</v>
       </c>
       <c r="W41">
-        <v>32.341671410961403</v>
+        <v>56.446652896199801</v>
       </c>
       <c r="X41">
-        <v>31.8876273802768</v>
+        <v>39.750813655761597</v>
       </c>
       <c r="Y41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z41" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AA41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB41" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>30.958218039285399</v>
+        <v>49.727537455754003</v>
       </c>
       <c r="B42">
-        <v>70.620248991605195</v>
+        <v>100</v>
       </c>
       <c r="C42">
-        <v>68.784546423777897</v>
+        <v>100</v>
       </c>
       <c r="D42">
-        <v>30.9166604343011</v>
+        <v>19.038033191408498</v>
       </c>
       <c r="E42">
-        <v>13.774788594840899</v>
+        <v>9.46714508609654</v>
       </c>
       <c r="F42">
-        <v>1.74632369899856</v>
+        <v>5.0036055529225401</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J42">
-        <v>58.652679210506697</v>
+        <v>61.679396805052797</v>
       </c>
       <c r="K42">
-        <v>39.694371990857803</v>
+        <v>35.038190415158397</v>
       </c>
       <c r="L42">
-        <v>11.7595298268054</v>
+        <v>35.038190415158397</v>
       </c>
       <c r="M42" t="s">
         <v>30</v>
       </c>
       <c r="N42" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="O42" t="s">
         <v>45</v>
       </c>
       <c r="P42">
-        <v>63.905657873142097</v>
+        <v>88.320603194947196</v>
       </c>
       <c r="Q42">
-        <v>40.205702643803498</v>
+        <v>50</v>
       </c>
       <c r="R42">
-        <v>39.740318890839603</v>
-      </c>
-      <c r="S42" t="s">
-        <v>33</v>
-      </c>
-      <c r="T42" t="s">
-        <v>31</v>
-      </c>
-      <c r="U42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V42">
-        <v>55.063361501094697</v>
-      </c>
-      <c r="W42">
-        <v>54.075658915964297</v>
-      </c>
-      <c r="X42">
-        <v>50.366391312272398</v>
+        <v>38.320603194947203</v>
       </c>
       <c r="Y42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z42" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AA42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB42" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>44.046730904378002</v>
+        <v>33.109485640932697</v>
       </c>
       <c r="B43">
-        <v>93.206225792840499</v>
+        <v>34.392197269901999</v>
       </c>
       <c r="C43">
-        <v>78.555405699086506</v>
+        <v>32.857240211794497</v>
       </c>
       <c r="D43">
-        <v>10.1426409872428</v>
+        <v>24.601959324967702</v>
       </c>
       <c r="E43">
-        <v>4.9977613514041899</v>
+        <v>9.8116073286436105</v>
       </c>
       <c r="F43">
-        <v>1.6238912372969401</v>
+        <v>2.6367151365180899</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -4131,14 +4122,17 @@
       <c r="H43" t="s">
         <v>35</v>
       </c>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
       <c r="J43">
-        <v>82.703229276967505</v>
+        <v>31.243451771148798</v>
       </c>
       <c r="K43">
-        <v>53.243843055957001</v>
+        <v>13.6767624078054</v>
       </c>
       <c r="L43">
-        <v>17.296770723032498</v>
+        <v>10.4745073459419</v>
       </c>
       <c r="M43" t="s">
         <v>30</v>
@@ -4147,66 +4141,66 @@
         <v>31</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P43">
-        <v>82.460220853109703</v>
+        <v>70.290599011953702</v>
       </c>
       <c r="Q43">
-        <v>52.163566023597198</v>
+        <v>62.3534326092364</v>
       </c>
       <c r="R43">
-        <v>30.296654829512502</v>
+        <v>58.767896061730099</v>
       </c>
       <c r="S43" t="s">
         <v>33</v>
       </c>
       <c r="T43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U43" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="V43">
-        <v>100</v>
+        <v>65.998877011363902</v>
       </c>
       <c r="W43">
-        <v>100</v>
+        <v>31.772226928197</v>
       </c>
       <c r="X43">
-        <v>100</v>
+        <v>29.803178875537199</v>
       </c>
       <c r="Y43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z43" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AA43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AB43" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43.171982438850598</v>
+        <v>20.333470045948001</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>76.949052931443802</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>69.307152051665796</v>
       </c>
       <c r="D44">
-        <v>29.4952809714597</v>
+        <v>37.7667581493453</v>
       </c>
       <c r="E44">
-        <v>12.7336975212882</v>
+        <v>11.335775423671199</v>
       </c>
       <c r="F44">
-        <v>3.4654304615904898</v>
+        <v>2.1912246363667198</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -4218,128 +4212,149 @@
         <v>28</v>
       </c>
       <c r="J44">
-        <v>88.831033746442301</v>
+        <v>59.230940492113199</v>
       </c>
       <c r="K44">
-        <v>43.541507438711399</v>
+        <v>21.984151401262402</v>
       </c>
       <c r="L44">
-        <v>32.3725411851537</v>
+        <v>21.653269540636298</v>
       </c>
       <c r="M44" t="s">
         <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O44" t="s">
         <v>31</v>
       </c>
       <c r="P44">
-        <v>88.831033746442301</v>
+        <v>50.007206293414903</v>
       </c>
       <c r="Q44">
-        <v>33.506898760673202</v>
+        <v>26.110260490827098</v>
       </c>
       <c r="R44">
-        <v>32.3725411851537</v>
+        <v>23.912090896749302</v>
+      </c>
+      <c r="S44" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" t="s">
+        <v>30</v>
+      </c>
+      <c r="V44">
+        <v>45.252941347916597</v>
+      </c>
+      <c r="W44">
+        <v>36.687320745199102</v>
+      </c>
+      <c r="X44">
+        <v>35.190350205613697</v>
       </c>
       <c r="Y44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z44" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AA44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AB44" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>60.298925735637503</v>
+        <v>20.868063029324901</v>
       </c>
       <c r="B45">
         <v>100</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>95.528923543373296</v>
       </c>
       <c r="D45">
-        <v>14.6281951975213</v>
+        <v>27.875351977151599</v>
       </c>
       <c r="E45">
-        <v>8.8206445586174702</v>
+        <v>5.8880758058487102</v>
       </c>
       <c r="F45">
-        <v>2.06706283902757</v>
+        <v>3.8077316502238201</v>
       </c>
       <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
         <v>28</v>
       </c>
-      <c r="H45" t="s">
-        <v>27</v>
+      <c r="I45" t="s">
+        <v>35</v>
       </c>
       <c r="J45">
-        <v>100</v>
+        <v>62.081281600757798</v>
       </c>
       <c r="K45">
-        <v>66.6666666666667</v>
+        <v>48.742457811057101</v>
       </c>
       <c r="L45">
-        <v>33.3333333333333</v>
+        <v>29.2060484136639</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
       </c>
       <c r="N45" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" t="s">
         <v>52</v>
       </c>
-      <c r="O45" t="s">
-        <v>45</v>
-      </c>
       <c r="P45">
-        <v>100</v>
+        <v>73.6492881684309</v>
       </c>
       <c r="Q45">
-        <v>66.6666666666667</v>
+        <v>24.392355539440199</v>
       </c>
       <c r="R45">
-        <v>33.3333333333333</v>
+        <v>20.347471177256299</v>
       </c>
       <c r="Y45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z45" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AA45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AB45" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>59.243830488838803</v>
+        <v>26.106857327433101</v>
       </c>
       <c r="B46">
-        <v>51.428960615754498</v>
+        <v>34.058237651450398</v>
       </c>
       <c r="C46">
-        <v>47.400723707888801</v>
+        <v>32.274170498555698</v>
       </c>
       <c r="D46">
-        <v>18.4164559508331</v>
+        <v>62.563514431837298</v>
       </c>
       <c r="E46">
-        <v>11.7331318121769</v>
+        <v>23.2292793940302</v>
       </c>
       <c r="F46">
-        <v>3.0030418560665502</v>
+        <v>2.8686022338450501</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -4347,17 +4362,14 @@
       <c r="H46" t="s">
         <v>35</v>
       </c>
-      <c r="I46" t="s">
-        <v>28</v>
-      </c>
       <c r="J46">
-        <v>62.170437786178198</v>
+        <v>38.876003627561197</v>
       </c>
       <c r="K46">
-        <v>47.917512881752998</v>
+        <v>32.550265182900901</v>
       </c>
       <c r="L46">
-        <v>18.2816300854576</v>
+        <v>20.286542707109099</v>
       </c>
       <c r="M46" t="s">
         <v>30</v>
@@ -4366,43 +4378,43 @@
         <v>31</v>
       </c>
       <c r="O46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P46">
-        <v>69.649045655444297</v>
+        <v>58.512426579237797</v>
       </c>
       <c r="Q46">
-        <v>54.419578644326698</v>
+        <v>51.6383880291731</v>
       </c>
       <c r="R46">
-        <v>26.395711018861</v>
+        <v>31.3324736706241</v>
       </c>
       <c r="S46" t="s">
         <v>33</v>
       </c>
       <c r="T46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V46">
-        <v>60.888708368632699</v>
+        <v>59.887915907442498</v>
       </c>
       <c r="W46">
-        <v>29.635261098728702</v>
+        <v>29.012835697921599</v>
       </c>
       <c r="X46">
-        <v>29.458048995426001</v>
+        <v>26.033514112452199</v>
       </c>
       <c r="Y46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z46" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s">
         <v>34</v>
@@ -4410,22 +4422,22 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>35.1638276267593</v>
+        <v>34.457553560303602</v>
       </c>
       <c r="B47">
-        <v>90.604041062095902</v>
+        <v>88.005840722504004</v>
       </c>
       <c r="C47">
-        <v>85.562654484255305</v>
+        <v>77.153114328402495</v>
       </c>
       <c r="D47">
-        <v>17.546765540602099</v>
+        <v>38.402985630985697</v>
       </c>
       <c r="E47">
-        <v>7.0808437577571004</v>
+        <v>16.769928941289301</v>
       </c>
       <c r="F47">
-        <v>1.87721930950539</v>
+        <v>-0.826470310036022</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
@@ -4437,13 +4449,13 @@
         <v>29</v>
       </c>
       <c r="J47">
-        <v>61.336653215645001</v>
+        <v>61.574293517684602</v>
       </c>
       <c r="K47">
-        <v>40.390759193095398</v>
+        <v>24.814327968450399</v>
       </c>
       <c r="L47">
-        <v>17.7475400589515</v>
+        <v>17.773584548688</v>
       </c>
       <c r="M47" t="s">
         <v>30</v>
@@ -4455,40 +4467,40 @@
         <v>32</v>
       </c>
       <c r="P47">
-        <v>65.904092141956994</v>
+        <v>75.096598183428398</v>
       </c>
       <c r="Q47">
-        <v>53.124645737315802</v>
+        <v>51.533708034825402</v>
       </c>
       <c r="R47">
-        <v>34.315038817140099</v>
+        <v>38.026514178378299</v>
       </c>
       <c r="S47" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" t="s">
         <v>33</v>
       </c>
-      <c r="T47" t="s">
-        <v>30</v>
-      </c>
       <c r="U47" t="s">
         <v>32</v>
       </c>
       <c r="V47">
-        <v>100</v>
+        <v>77.355750039262503</v>
       </c>
       <c r="W47">
-        <v>100</v>
+        <v>34.604160630688298</v>
       </c>
       <c r="X47">
-        <v>46.345161668349903</v>
+        <v>26.211046186124499</v>
       </c>
       <c r="Y47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z47" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s">
         <v>110</v>
@@ -4496,7 +4508,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>73.366824069431004</v>
+        <v>75.628363905225001</v>
       </c>
       <c r="B48">
         <v>100</v>
@@ -4505,58 +4517,58 @@
         <v>100</v>
       </c>
       <c r="D48">
-        <v>16.067857958261701</v>
+        <v>52.459703475680797</v>
       </c>
       <c r="E48">
-        <v>11.788477079963901</v>
+        <v>39.674415448189798</v>
       </c>
       <c r="F48">
-        <v>2.7313492209868402</v>
+        <v>5.16244562113868</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
         <v>28</v>
       </c>
       <c r="J48">
-        <v>82.675801020932795</v>
+        <v>90.358444815326393</v>
       </c>
       <c r="K48">
-        <v>45.888514893126001</v>
+        <v>38.585312171082599</v>
       </c>
       <c r="L48">
-        <v>39.138046537841902</v>
+        <v>29.0789734059497</v>
       </c>
       <c r="M48" t="s">
         <v>30</v>
       </c>
       <c r="N48" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P48">
-        <v>74.013701531399093</v>
+        <v>58.022730392358703</v>
       </c>
       <c r="Q48">
-        <v>48.315185121527001</v>
+        <v>28.943756986408999</v>
       </c>
       <c r="R48">
-        <v>35.969080179866602</v>
+        <v>28.943756986408999</v>
       </c>
       <c r="Y48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z48" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s">
         <v>111</v>
@@ -4564,58 +4576,58 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>34.773850533614898</v>
+        <v>78.707815638248505</v>
       </c>
       <c r="B49">
-        <v>24.8042934506928</v>
+        <v>22.207848022123901</v>
       </c>
       <c r="C49">
-        <v>23.310335505830199</v>
+        <v>21.8418449540087</v>
       </c>
       <c r="D49">
-        <v>27.126555566153399</v>
+        <v>24.219535339618002</v>
       </c>
       <c r="E49">
-        <v>13.6007255045263</v>
+        <v>20.969799561261802</v>
       </c>
       <c r="F49">
-        <v>2.3057022085891798</v>
+        <v>4.1581578335004501</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J49">
-        <v>50.841965388130397</v>
+        <v>45.459039781734297</v>
       </c>
       <c r="K49">
-        <v>23.138057384139898</v>
+        <v>23.3919898233287</v>
       </c>
       <c r="L49">
-        <v>11.42632614167</v>
+        <v>18.3223901461743</v>
       </c>
       <c r="M49" t="s">
         <v>30</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P49">
-        <v>51.463420464675899</v>
+        <v>64.625640416435104</v>
       </c>
       <c r="Q49">
-        <v>36.483851225683203</v>
+        <v>39.293115802006803</v>
       </c>
       <c r="R49">
-        <v>35.4593476731553</v>
+        <v>36.262318195713902</v>
       </c>
       <c r="S49" t="s">
         <v>33</v>
@@ -4627,22 +4639,22 @@
         <v>30</v>
       </c>
       <c r="V49">
-        <v>65.403833733678297</v>
+        <v>60.878450964546701</v>
       </c>
       <c r="W49">
-        <v>38.923647029554203</v>
+        <v>27.533003787746601</v>
       </c>
       <c r="X49">
-        <v>34.636455658102797</v>
+        <v>21.255402434108799</v>
       </c>
       <c r="Y49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z49" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s">
         <v>34</v>
@@ -4650,40 +4662,40 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>21.288601537764801</v>
+        <v>38.041473363092599</v>
       </c>
       <c r="B50">
-        <v>68.279160512755098</v>
+        <v>74.160632446214294</v>
       </c>
       <c r="C50">
-        <v>58.4799868845191</v>
+        <v>66.387604621429205</v>
       </c>
       <c r="D50">
-        <v>29.668335917196401</v>
+        <v>29.011806962330699</v>
       </c>
       <c r="E50">
-        <v>9.6745456136214294</v>
+        <v>14.6370794251061</v>
       </c>
       <c r="F50">
-        <v>1.58706341596459</v>
+        <v>2.2165668605826299</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J50">
-        <v>49.680230380761202</v>
+        <v>68.968854995668494</v>
       </c>
       <c r="K50">
-        <v>45.713418610647999</v>
+        <v>33.681924969896698</v>
       </c>
       <c r="L50">
-        <v>33.502140048318601</v>
+        <v>23.447238071906298</v>
       </c>
       <c r="M50" t="s">
         <v>30</v>
@@ -4692,16 +4704,16 @@
         <v>31</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P50">
-        <v>63.366696480523899</v>
+        <v>77.086234414300606</v>
       </c>
       <c r="Q50">
-        <v>43.736164142966103</v>
+        <v>53.728691944600897</v>
       </c>
       <c r="R50">
-        <v>32.2172936521225</v>
+        <v>38.539782563868897</v>
       </c>
       <c r="S50" t="s">
         <v>30</v>
@@ -4710,25 +4722,25 @@
         <v>33</v>
       </c>
       <c r="U50" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="V50">
-        <v>62.494817654212198</v>
+        <v>42.516754686107298</v>
       </c>
       <c r="W50">
-        <v>49.800895431154103</v>
+        <v>20.7993587679087</v>
       </c>
       <c r="X50">
-        <v>43.903333078647997</v>
+        <v>18.1785151620902</v>
       </c>
       <c r="Y50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z50" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s">
         <v>110</v>
@@ -4736,85 +4748,67 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>44.308898951648402</v>
+        <v>84.093441299856195</v>
       </c>
       <c r="B51">
-        <v>98.192677007616894</v>
+        <v>100</v>
       </c>
       <c r="C51">
-        <v>90.824948617470199</v>
+        <v>96.703928323177294</v>
       </c>
       <c r="D51">
-        <v>16.630815303394801</v>
+        <v>20.783070816713199</v>
       </c>
       <c r="E51">
-        <v>7.7996524079757696</v>
+        <v>18.119253850775301</v>
       </c>
       <c r="F51">
-        <v>2.23643614167807</v>
+        <v>4.0054249274953397</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
       </c>
       <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
         <v>44</v>
       </c>
-      <c r="I51" t="s">
-        <v>28</v>
-      </c>
       <c r="J51">
-        <v>68.391611191258093</v>
+        <v>65.520137499688104</v>
       </c>
       <c r="K51">
-        <v>59.628462950260797</v>
+        <v>58.519918726460801</v>
       </c>
       <c r="L51">
-        <v>46.0922281524075</v>
+        <v>31.027451033978</v>
       </c>
       <c r="M51" t="s">
         <v>30</v>
       </c>
       <c r="N51" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O51" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P51">
-        <v>75.915228902515693</v>
+        <v>75.994684743856894</v>
       </c>
       <c r="Q51">
-        <v>37.794621772350702</v>
+        <v>37.094369107288102</v>
       </c>
       <c r="R51">
-        <v>37.325969966817198</v>
-      </c>
-      <c r="S51" t="s">
-        <v>33</v>
-      </c>
-      <c r="T51" t="s">
-        <v>32</v>
-      </c>
-      <c r="U51" t="s">
-        <v>39</v>
-      </c>
-      <c r="V51">
-        <v>100</v>
-      </c>
-      <c r="W51">
-        <v>100</v>
-      </c>
-      <c r="X51">
-        <v>100</v>
+        <v>26.1258227578634</v>
       </c>
       <c r="Y51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z51" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s">
         <v>111</v>
@@ -4822,85 +4816,82 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>34.440686456846102</v>
+        <v>36.994628561640297</v>
       </c>
       <c r="B52">
-        <v>34.858747681566399</v>
+        <v>23.1360159313625</v>
       </c>
       <c r="C52">
-        <v>32.9469006486284</v>
+        <v>22.148745647767999</v>
       </c>
       <c r="D52">
-        <v>28.6575774961719</v>
+        <v>31.5296480788131</v>
       </c>
       <c r="E52">
-        <v>12.696521886419999</v>
+        <v>18.347682021870298</v>
       </c>
       <c r="F52">
-        <v>2.7828625437952201</v>
+        <v>2.3288103917431799</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J52">
-        <v>45.576534784969198</v>
+        <v>43.959763137550297</v>
       </c>
       <c r="K52">
-        <v>26.160143312241601</v>
+        <v>12.9883547417658</v>
       </c>
       <c r="L52">
-        <v>22.118457078133499</v>
+        <v>11.3840934113059</v>
       </c>
       <c r="M52" t="s">
         <v>30</v>
       </c>
       <c r="N52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O52" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P52">
-        <v>61.063734429794899</v>
+        <v>45.149064018555102</v>
       </c>
       <c r="Q52">
-        <v>36.655927676306703</v>
+        <v>26.3786578818554</v>
       </c>
       <c r="R52">
-        <v>34.403467923212297</v>
+        <v>24.984772818926299</v>
       </c>
       <c r="S52" t="s">
         <v>33</v>
       </c>
       <c r="T52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V52">
-        <v>62.341940667040902</v>
+        <v>51.927123534584602</v>
       </c>
       <c r="W52">
-        <v>37.230323466829098</v>
+        <v>40.575544699339197</v>
       </c>
       <c r="X52">
-        <v>32.858003123712798</v>
+        <v>34.795070197658198</v>
       </c>
       <c r="Y52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z52" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s">
         <v>34</v>
@@ -4908,85 +4899,85 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>22.736709412826698</v>
+        <v>44.858352234900202</v>
       </c>
       <c r="B53">
-        <v>76.962226098413197</v>
+        <v>89.862294975198495</v>
       </c>
       <c r="C53">
-        <v>73.345009099717402</v>
+        <v>84.9879171611869</v>
       </c>
       <c r="D53">
-        <v>28.644283489713398</v>
+        <v>12.7912734608718</v>
       </c>
       <c r="E53">
-        <v>8.3652234768974196</v>
+        <v>6.6977697755588999</v>
       </c>
       <c r="F53">
-        <v>1.64306489713548</v>
+        <v>1.78086875725748</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I53" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J53">
-        <v>54.236436550009699</v>
+        <v>48.484736078986103</v>
       </c>
       <c r="K53">
-        <v>23.8726681001211</v>
+        <v>33.491196907611197</v>
       </c>
       <c r="L53">
-        <v>22.407692909332798</v>
+        <v>17.206132272074601</v>
       </c>
       <c r="M53" t="s">
         <v>30</v>
       </c>
       <c r="N53" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O53" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="P53">
-        <v>66.458670920744098</v>
+        <v>74.578929068883298</v>
       </c>
       <c r="Q53">
-        <v>41.7505016206268</v>
+        <v>50.682780914696899</v>
       </c>
       <c r="R53">
-        <v>38.792627684243897</v>
+        <v>45.7135061259564</v>
       </c>
       <c r="S53" t="s">
         <v>33</v>
       </c>
       <c r="T53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V53">
-        <v>62.826702328445798</v>
+        <v>100</v>
       </c>
       <c r="W53">
-        <v>54.888279403077</v>
+        <v>68.997762120693096</v>
       </c>
       <c r="X53">
-        <v>38.172506924893199</v>
+        <v>44.9505792867282</v>
       </c>
       <c r="Y53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z53" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s">
         <v>110</v>
@@ -4994,22 +4985,22 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>55.1009313537335</v>
+        <v>64.0289988032211</v>
       </c>
       <c r="B54">
         <v>100</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>95.732460327755604</v>
       </c>
       <c r="D54">
-        <v>17.132229889828398</v>
+        <v>16.7737713992978</v>
       </c>
       <c r="E54">
-        <v>9.4400182309581506</v>
+        <v>11.309565950739801</v>
       </c>
       <c r="F54">
-        <v>2.5187773236785098</v>
+        <v>3.3977102738037499</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
@@ -5018,43 +5009,43 @@
         <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J54">
-        <v>67.500101228467798</v>
+        <v>93.817350095201107</v>
       </c>
       <c r="K54">
-        <v>60.668478500727701</v>
+        <v>65.086203659250401</v>
       </c>
       <c r="L54">
-        <v>38.413132425268699</v>
+        <v>25.623879505272502</v>
       </c>
       <c r="M54" t="s">
         <v>30</v>
       </c>
       <c r="N54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P54">
-        <v>81.606690236742395</v>
+        <v>82.643937100664402</v>
       </c>
       <c r="Q54">
-        <v>50.055768852803702</v>
+        <v>35.408960757100999</v>
       </c>
       <c r="R54">
-        <v>32.643919169151502</v>
+        <v>29.967460663238398</v>
       </c>
       <c r="Y54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z54" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s">
         <v>111</v>
@@ -5062,85 +5053,85 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>25.712110999125699</v>
+        <v>46.766279750069899</v>
       </c>
       <c r="B55">
-        <v>29.833681037621801</v>
+        <v>42.2246179359012</v>
       </c>
       <c r="C55">
-        <v>29.0592308016465</v>
+        <v>40.920349541197901</v>
       </c>
       <c r="D55">
-        <v>24.346494669331602</v>
+        <v>30.513362424746902</v>
       </c>
       <c r="E55">
-        <v>9.6374034474972898</v>
+        <v>17.736831906048501</v>
       </c>
       <c r="F55">
-        <v>1.96601641769317</v>
+        <v>2.9057729134139501</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
         <v>35</v>
       </c>
       <c r="J55">
-        <v>67.713979742146293</v>
+        <v>56.868960221335797</v>
       </c>
       <c r="K55">
-        <v>10.899700479523</v>
+        <v>15.2290407824122</v>
       </c>
       <c r="L55">
-        <v>9.0298521585817895</v>
+        <v>12.411709873788199</v>
       </c>
       <c r="M55" t="s">
         <v>30</v>
       </c>
       <c r="N55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O55" t="s">
         <v>45</v>
       </c>
       <c r="P55">
-        <v>52.488375081098297</v>
+        <v>54.201644030039503</v>
       </c>
       <c r="Q55">
-        <v>34.764400930476</v>
+        <v>41.607851120522596</v>
       </c>
       <c r="R55">
-        <v>34.411551702323301</v>
+        <v>38.565664900876399</v>
       </c>
       <c r="S55" t="s">
         <v>33</v>
       </c>
       <c r="T55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V55">
-        <v>67.332952352681403</v>
+        <v>67.157075454100607</v>
       </c>
       <c r="W55">
-        <v>39.970157388342997</v>
+        <v>37.570615564131998</v>
       </c>
       <c r="X55">
-        <v>37.8654575658746</v>
+        <v>31.5400490865877</v>
       </c>
       <c r="Y55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z55" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AB55" t="s">
         <v>34</v>
@@ -5148,85 +5139,85 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>33.661964953589703</v>
+        <v>37.617326200226699</v>
       </c>
       <c r="B56">
-        <v>89.407424973860103</v>
+        <v>88.710363667238795</v>
       </c>
       <c r="C56">
-        <v>84.587603869681502</v>
+        <v>81.934290907313894</v>
       </c>
       <c r="D56">
-        <v>20.6099683856186</v>
+        <v>32.4279127933384</v>
       </c>
       <c r="E56">
-        <v>7.92522622917663</v>
+        <v>13.9955881721806</v>
       </c>
       <c r="F56">
-        <v>2.1812293468229802</v>
+        <v>2.7714244289737899</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J56">
-        <v>84.151286367289799</v>
+        <v>70.752392846020697</v>
       </c>
       <c r="K56">
-        <v>55.087338257002401</v>
+        <v>17.1383541377445</v>
       </c>
       <c r="L56">
-        <v>12.9280419658193</v>
+        <v>16.370320783506099</v>
       </c>
       <c r="M56" t="s">
         <v>30</v>
       </c>
       <c r="N56" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P56">
-        <v>58.820753194013598</v>
+        <v>56.999775121326401</v>
       </c>
       <c r="Q56">
-        <v>26.584257054481601</v>
+        <v>41.937525308887103</v>
       </c>
       <c r="R56">
-        <v>26.337956720927899</v>
+        <v>34.584094882662001</v>
       </c>
       <c r="S56" t="s">
         <v>30</v>
       </c>
       <c r="T56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V56">
-        <v>71.114056561795195</v>
+        <v>67.776562211520101</v>
       </c>
       <c r="W56">
-        <v>58.880216210433197</v>
+        <v>54.853278761329101</v>
       </c>
       <c r="X56">
-        <v>52.209131367740497</v>
+        <v>47.427022394841899</v>
       </c>
       <c r="Y56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z56" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AB56" t="s">
         <v>110</v>
@@ -5234,7 +5225,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>40.364044848402401</v>
+        <v>64.130221068406101</v>
       </c>
       <c r="B57">
         <v>100</v>
@@ -5243,58 +5234,58 @@
         <v>100</v>
       </c>
       <c r="D57">
-        <v>18.007128017356099</v>
+        <v>17.3672806601672</v>
       </c>
       <c r="E57">
-        <v>7.2684052288348697</v>
+        <v>11.137675480935799</v>
       </c>
       <c r="F57">
-        <v>2.6323978151816001</v>
+        <v>3.5235474104166</v>
       </c>
       <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
         <v>28</v>
       </c>
-      <c r="H57" t="s">
-        <v>44</v>
-      </c>
       <c r="I57" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J57">
-        <v>84.888196197026403</v>
+        <v>74.613932045953504</v>
       </c>
       <c r="K57">
-        <v>54.664588591079202</v>
+        <v>43.026305965937901</v>
       </c>
       <c r="L57">
-        <v>54.664588591079202</v>
+        <v>30.992508739579598</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P57">
-        <v>54.664588591079202</v>
+        <v>73.561166256028997</v>
       </c>
       <c r="Q57">
-        <v>54.664588591079202</v>
+        <v>37.182234397802802</v>
       </c>
       <c r="R57">
-        <v>45.335411408920798</v>
+        <v>27.384157968029101</v>
       </c>
       <c r="Y57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z57" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AA57" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AB57" t="s">
         <v>111</v>
@@ -5302,22 +5293,22 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>27.3068242982695</v>
+        <v>41.103334739611</v>
       </c>
       <c r="B58">
-        <v>27.234587072866699</v>
+        <v>33.123659262120199</v>
       </c>
       <c r="C58">
-        <v>25.581070856772499</v>
+        <v>31.657458176214099</v>
       </c>
       <c r="D58">
-        <v>54.984550590773601</v>
+        <v>27.3565901967653</v>
       </c>
       <c r="E58">
-        <v>26.411763934316198</v>
+        <v>12.746028848572999</v>
       </c>
       <c r="F58">
-        <v>2.72876919138537</v>
+        <v>3.01106443336209</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
@@ -5326,61 +5317,61 @@
         <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J58">
-        <v>60.663196090515697</v>
+        <v>63.010865458160602</v>
       </c>
       <c r="K58">
-        <v>21.392077689144301</v>
+        <v>23.0309405372881</v>
       </c>
       <c r="L58">
-        <v>12.9386002596745</v>
+        <v>18.233270372820801</v>
       </c>
       <c r="M58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O58" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P58">
-        <v>43.649211780079199</v>
+        <v>79.708013183777396</v>
       </c>
       <c r="Q58">
-        <v>41.737472260055902</v>
+        <v>51.4525395634383</v>
       </c>
       <c r="R58">
-        <v>28.877622869232098</v>
+        <v>35.668863561951298</v>
       </c>
       <c r="S58" t="s">
         <v>33</v>
       </c>
       <c r="T58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V58">
-        <v>58.358034600159002</v>
+        <v>45.974814249550597</v>
       </c>
       <c r="W58">
-        <v>30.745327066066999</v>
+        <v>34.478208580834902</v>
       </c>
       <c r="X58">
-        <v>30.0564735564781</v>
+        <v>31.2898693857864</v>
       </c>
       <c r="Y58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z58" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AA58" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="AB58" t="s">
         <v>34</v>
@@ -5388,22 +5379,22 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>25.566572252710898</v>
+        <v>31.425138276412198</v>
       </c>
       <c r="B59">
-        <v>71.904648062138506</v>
+        <v>89.128242820305303</v>
       </c>
       <c r="C59">
-        <v>66.220444272793699</v>
+        <v>80.646846136684005</v>
       </c>
       <c r="D59">
-        <v>23.6855768829056</v>
+        <v>31.810519809235299</v>
       </c>
       <c r="E59">
-        <v>8.7386748180814102</v>
+        <v>11.6912102077887</v>
       </c>
       <c r="F59">
-        <v>1.5898333098013899</v>
+        <v>2.6185360829672901</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
@@ -5412,16 +5403,16 @@
         <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J59">
-        <v>68.9347764402075</v>
+        <v>69.827447743413799</v>
       </c>
       <c r="K59">
-        <v>27.515519884643702</v>
+        <v>25.802715580841198</v>
       </c>
       <c r="L59">
-        <v>14.609493515661001</v>
+        <v>22.912602272695899</v>
       </c>
       <c r="M59" t="s">
         <v>30</v>
@@ -5433,13 +5424,13 @@
         <v>32</v>
       </c>
       <c r="P59">
-        <v>52.348005082450101</v>
+        <v>80.391077844004897</v>
       </c>
       <c r="Q59">
-        <v>37.994084004233002</v>
+        <v>50.655748463498</v>
       </c>
       <c r="R59">
-        <v>32.220001070282102</v>
+        <v>38.985885245282297</v>
       </c>
       <c r="S59" t="s">
         <v>30</v>
@@ -5448,25 +5439,25 @@
         <v>33</v>
       </c>
       <c r="U59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V59">
-        <v>67.953208629132206</v>
+        <v>73.742517841471496</v>
       </c>
       <c r="W59">
-        <v>63.702334399931502</v>
+        <v>52.013079779947603</v>
       </c>
       <c r="X59">
-        <v>39.492132675068802</v>
+        <v>49.709825275801101</v>
       </c>
       <c r="Y59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z59" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AA59" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="AB59" t="s">
         <v>110</v>
@@ -5474,67 +5465,85 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>57.425992363286603</v>
+        <v>48.130890531637199</v>
       </c>
       <c r="B60">
+        <v>99.508339605467697</v>
+      </c>
+      <c r="C60">
+        <v>96.826009464083</v>
+      </c>
+      <c r="D60">
+        <v>25.8039181402502</v>
+      </c>
+      <c r="E60">
+        <v>13.126665220113599</v>
+      </c>
+      <c r="F60">
+        <v>3.7733059911554401</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60">
+        <v>83.692368794842494</v>
+      </c>
+      <c r="K60">
+        <v>46.655001730918798</v>
+      </c>
+      <c r="L60">
+        <v>37.656564204863798</v>
+      </c>
+      <c r="M60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60">
+        <v>87.562476276461297</v>
+      </c>
+      <c r="Q60">
+        <v>49.095347729831403</v>
+      </c>
+      <c r="R60">
+        <v>30.4677752226774</v>
+      </c>
+      <c r="S60" t="s">
+        <v>33</v>
+      </c>
+      <c r="T60" t="s">
+        <v>59</v>
+      </c>
+      <c r="U60" t="s">
+        <v>31</v>
+      </c>
+      <c r="V60">
         <v>100</v>
       </c>
-      <c r="C60">
-        <v>96.835046346301795</v>
-      </c>
-      <c r="D60">
-        <v>23.5447878902553</v>
-      </c>
-      <c r="E60">
-        <v>14.1542619560286</v>
-      </c>
-      <c r="F60">
-        <v>3.6109351145451698</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60">
-        <v>88.587885455811602</v>
-      </c>
-      <c r="K60">
-        <v>78.782694753326496</v>
-      </c>
-      <c r="L60">
-        <v>47.890262373647701</v>
-      </c>
-      <c r="M60" t="s">
-        <v>30</v>
-      </c>
-      <c r="N60" t="s">
-        <v>52</v>
-      </c>
-      <c r="O60" t="s">
-        <v>31</v>
-      </c>
-      <c r="P60">
-        <v>96.665332624218806</v>
-      </c>
-      <c r="Q60">
-        <v>38.847598247235801</v>
-      </c>
-      <c r="R60">
-        <v>32.517690939839298</v>
+      <c r="W60">
+        <v>100</v>
+      </c>
+      <c r="X60">
+        <v>100</v>
       </c>
       <c r="Y60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z60" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AA60" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="AB60" t="s">
         <v>111</v>
@@ -5542,79 +5551,85 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>46.325115298371301</v>
+        <v>14.286113602211399</v>
       </c>
       <c r="B61">
-        <v>32.263718900896798</v>
+        <v>18.995442511504699</v>
       </c>
       <c r="C61">
-        <v>27.926062895775299</v>
+        <v>17.6941932595665</v>
       </c>
       <c r="D61">
-        <v>32.244417259151099</v>
+        <v>30.955639992262299</v>
       </c>
       <c r="E61">
-        <v>18.278283586185001</v>
+        <v>13.135202063897101</v>
       </c>
       <c r="F61">
-        <v>2.3779640750081499</v>
+        <v>1.49288543364412</v>
       </c>
       <c r="G61" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
       </c>
       <c r="J61">
-        <v>40.813100803571501</v>
+        <v>47.4734249781241</v>
       </c>
       <c r="K61">
-        <v>39.333457733887897</v>
+        <v>26.971612966237</v>
       </c>
       <c r="L61">
-        <v>24.728246101653699</v>
+        <v>11.274131158107901</v>
       </c>
       <c r="M61" t="s">
         <v>30</v>
       </c>
       <c r="N61" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O61" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="P61">
-        <v>40.607343189976099</v>
+        <v>57.465342644935099</v>
       </c>
       <c r="Q61">
-        <v>36.792608621560703</v>
+        <v>47.202217643068103</v>
       </c>
       <c r="R61">
-        <v>36.196271837468998</v>
+        <v>37.258284636947799</v>
       </c>
       <c r="S61" t="s">
         <v>33</v>
       </c>
       <c r="T61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V61">
-        <v>56.4416040218048</v>
+        <v>61.2414347734993</v>
       </c>
       <c r="W61">
-        <v>33.655345580417098</v>
+        <v>32.658414436944803</v>
       </c>
       <c r="X61">
-        <v>26.0212984095369</v>
+        <v>28.321061748499101</v>
       </c>
       <c r="Y61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z61" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AA61" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AB61" t="s">
         <v>34</v>
@@ -5622,37 +5637,40 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>22.3859518936098</v>
+        <v>30.958218039285399</v>
       </c>
       <c r="B62">
-        <v>77.168358270599697</v>
+        <v>70.620248991605195</v>
       </c>
       <c r="C62">
-        <v>68.428490388762398</v>
+        <v>68.784546423777897</v>
       </c>
       <c r="D62">
-        <v>26.526570328659101</v>
+        <v>30.9166604343011</v>
       </c>
       <c r="E62">
-        <v>8.1119486152530698</v>
+        <v>13.774788594840899</v>
       </c>
       <c r="F62">
-        <v>1.6387092773529399</v>
+        <v>1.74632369899856</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>35</v>
       </c>
       <c r="I62" t="s">
         <v>28</v>
       </c>
       <c r="J62">
-        <v>39.656528152682199</v>
+        <v>58.652679210506697</v>
       </c>
       <c r="K62">
-        <v>38.759829579969598</v>
+        <v>39.694371990857803</v>
       </c>
       <c r="L62">
-        <v>26.6458563116481</v>
+        <v>11.7595298268054</v>
       </c>
       <c r="M62" t="s">
         <v>30</v>
@@ -5661,43 +5679,43 @@
         <v>32</v>
       </c>
       <c r="O62" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P62">
-        <v>63.261342616121397</v>
+        <v>63.905657873142097</v>
       </c>
       <c r="Q62">
-        <v>53.509632908880903</v>
+        <v>40.205702643803498</v>
       </c>
       <c r="R62">
-        <v>50.693086462169497</v>
+        <v>39.740318890839603</v>
       </c>
       <c r="S62" t="s">
         <v>33</v>
       </c>
       <c r="T62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U62" t="s">
         <v>30</v>
       </c>
       <c r="V62">
-        <v>58.614486986395001</v>
+        <v>55.063361501094697</v>
       </c>
       <c r="W62">
-        <v>48.7879643013923</v>
+        <v>54.075658915964297</v>
       </c>
       <c r="X62">
-        <v>40.152244377194599</v>
+        <v>50.366391312272398</v>
       </c>
       <c r="Y62" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z62" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AA62" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AB62" t="s">
         <v>110</v>
@@ -5705,22 +5723,22 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>55.4809826767546</v>
+        <v>60.298925735637503</v>
       </c>
       <c r="B63">
         <v>100</v>
       </c>
       <c r="C63">
-        <v>96.407399639568297</v>
+        <v>100</v>
       </c>
       <c r="D63">
-        <v>23.5248644362186</v>
+        <v>14.6281951975213</v>
       </c>
       <c r="E63">
-        <v>13.8693632130546</v>
+        <v>8.8206445586174702</v>
       </c>
       <c r="F63">
-        <v>2.8908263389381799</v>
+        <v>2.06706283902757</v>
       </c>
       <c r="G63" t="s">
         <v>28</v>
@@ -5729,40 +5747,40 @@
         <v>27</v>
       </c>
       <c r="J63">
-        <v>55.792084866838103</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>55.168230722721603</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="L63">
-        <v>47.864945076981002</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="M63" t="s">
         <v>30</v>
       </c>
       <c r="N63" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P63">
-        <v>81.258266168049502</v>
+        <v>100</v>
       </c>
       <c r="Q63">
-        <v>33.677640834967598</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="R63">
-        <v>24.4794091406844</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="Y63" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z63" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AA63" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AB63" t="s">
         <v>111</v>
@@ -5770,22 +5788,22 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>30.665918340316399</v>
+        <v>59.243830488838803</v>
       </c>
       <c r="B64">
-        <v>45.0395988349864</v>
+        <v>51.428960615754498</v>
       </c>
       <c r="C64">
-        <v>40.627803555556298</v>
+        <v>47.400723707888801</v>
       </c>
       <c r="D64">
-        <v>20.200320888865001</v>
+        <v>18.4164559508331</v>
       </c>
       <c r="E64">
-        <v>8.4479588316682399</v>
+        <v>11.7331318121769</v>
       </c>
       <c r="F64">
-        <v>2.3865572871098699</v>
+        <v>3.0030418560665502</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -5794,16 +5812,16 @@
         <v>35</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J64">
-        <v>53.863631294885899</v>
+        <v>62.170437786178198</v>
       </c>
       <c r="K64">
-        <v>26.007570111741799</v>
+        <v>47.917512881752998</v>
       </c>
       <c r="L64">
-        <v>19.511545740822498</v>
+        <v>18.2816300854576</v>
       </c>
       <c r="M64" t="s">
         <v>30</v>
@@ -5812,43 +5830,43 @@
         <v>31</v>
       </c>
       <c r="O64" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P64">
-        <v>52.643262142548203</v>
+        <v>69.649045655444297</v>
       </c>
       <c r="Q64">
-        <v>35.595541812007902</v>
+        <v>54.419578644326698</v>
       </c>
       <c r="R64">
-        <v>30.630423567925298</v>
+        <v>26.395711018861</v>
       </c>
       <c r="S64" t="s">
         <v>33</v>
       </c>
       <c r="T64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V64">
-        <v>64.517135939535905</v>
+        <v>60.888708368632699</v>
       </c>
       <c r="W64">
-        <v>43.166539326631501</v>
+        <v>29.635261098728702</v>
       </c>
       <c r="X64">
-        <v>38.651600840142002</v>
+        <v>29.458048995426001</v>
       </c>
       <c r="Y64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z64" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AA64" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AB64" t="s">
         <v>34</v>
@@ -5856,40 +5874,40 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>23.843633187407001</v>
+        <v>35.1638276267593</v>
       </c>
       <c r="B65">
-        <v>62.746482211991498</v>
+        <v>90.604041062095902</v>
       </c>
       <c r="C65">
-        <v>53.497297756347997</v>
+        <v>85.562654484255305</v>
       </c>
       <c r="D65">
-        <v>29.1124953636416</v>
+        <v>17.546765540602099</v>
       </c>
       <c r="E65">
-        <v>9.7738811249579101</v>
+        <v>7.0808437577571004</v>
       </c>
       <c r="F65">
-        <v>2.1110880049055298</v>
+        <v>1.87721930950539</v>
       </c>
       <c r="G65" t="s">
         <v>27</v>
       </c>
       <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s">
         <v>29</v>
       </c>
-      <c r="I65" t="s">
-        <v>35</v>
-      </c>
       <c r="J65">
-        <v>48.054803336505302</v>
+        <v>61.336653215645001</v>
       </c>
       <c r="K65">
-        <v>42.031745404804902</v>
+        <v>40.390759193095398</v>
       </c>
       <c r="L65">
-        <v>31.053882514066899</v>
+        <v>17.7475400589515</v>
       </c>
       <c r="M65" t="s">
         <v>30</v>
@@ -5898,43 +5916,43 @@
         <v>31</v>
       </c>
       <c r="O65" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P65">
-        <v>63.764515411474399</v>
+        <v>65.904092141956994</v>
       </c>
       <c r="Q65">
-        <v>54.066809668037202</v>
+        <v>53.124645737315802</v>
       </c>
       <c r="R65">
-        <v>49.929932250701398</v>
+        <v>34.315038817140099</v>
       </c>
       <c r="S65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V65">
-        <v>58.862142152595403</v>
+        <v>100</v>
       </c>
       <c r="W65">
-        <v>49.1379244581289</v>
+        <v>100</v>
       </c>
       <c r="X65">
-        <v>35.779071860573801</v>
+        <v>46.345161668349903</v>
       </c>
       <c r="Y65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z65" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AA65" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AB65" t="s">
         <v>110</v>
@@ -5942,40 +5960,40 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>40.375406601195003</v>
+        <v>73.366824069431004</v>
       </c>
       <c r="B66">
         <v>100</v>
       </c>
       <c r="C66">
-        <v>94.531365448776398</v>
+        <v>100</v>
       </c>
       <c r="D66">
-        <v>29.839263936547599</v>
+        <v>16.067857958261701</v>
       </c>
       <c r="E66">
-        <v>12.431360368722</v>
+        <v>11.788477079963901</v>
       </c>
       <c r="F66">
-        <v>3.1291966971544798</v>
+        <v>2.7313492209868402</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="I66" t="s">
         <v>28</v>
       </c>
       <c r="J66">
-        <v>50.812997279491498</v>
+        <v>82.675801020932795</v>
       </c>
       <c r="K66">
-        <v>39.6718560370688</v>
+        <v>45.888514893126001</v>
       </c>
       <c r="L66">
-        <v>37.969765187363102</v>
+        <v>39.138046537841902</v>
       </c>
       <c r="M66" t="s">
         <v>30</v>
@@ -5987,22 +6005,22 @@
         <v>32</v>
       </c>
       <c r="P66">
-        <v>54.411100744364902</v>
+        <v>74.013701531399093</v>
       </c>
       <c r="Q66">
-        <v>35.659927139007898</v>
+        <v>48.315185121527001</v>
       </c>
       <c r="R66">
-        <v>12.753761181223901</v>
+        <v>35.969080179866602</v>
       </c>
       <c r="Y66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z66" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AA66" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="AB66" t="s">
         <v>111</v>
@@ -6010,40 +6028,40 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>39.647741999941097</v>
+        <v>34.773850533614898</v>
       </c>
       <c r="B67">
-        <v>30.239037115693801</v>
+        <v>24.8042934506928</v>
       </c>
       <c r="C67">
-        <v>28.329854389885501</v>
+        <v>23.310335505830199</v>
       </c>
       <c r="D67">
-        <v>28.2845746003253</v>
+        <v>27.126555566153399</v>
       </c>
       <c r="E67">
-        <v>14.661036626664201</v>
+        <v>13.6007255045263</v>
       </c>
       <c r="F67">
-        <v>2.84595581376891</v>
+        <v>2.3057022085891798</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J67">
-        <v>51.189307067150402</v>
+        <v>50.841965388130397</v>
       </c>
       <c r="K67">
-        <v>11.186782908658801</v>
+        <v>23.138057384139898</v>
       </c>
       <c r="L67">
-        <v>9.6683229313558492</v>
+        <v>11.42632614167</v>
       </c>
       <c r="M67" t="s">
         <v>30</v>
@@ -6052,16 +6070,16 @@
         <v>31</v>
       </c>
       <c r="O67" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P67">
-        <v>54.553686694511697</v>
+        <v>51.463420464675899</v>
       </c>
       <c r="Q67">
-        <v>40.788458417172997</v>
+        <v>36.483851225683203</v>
       </c>
       <c r="R67">
-        <v>34.523966316211002</v>
+        <v>35.4593476731553</v>
       </c>
       <c r="S67" t="s">
         <v>33</v>
@@ -6073,22 +6091,22 @@
         <v>30</v>
       </c>
       <c r="V67">
-        <v>60.488506078979299</v>
+        <v>65.403833733678297</v>
       </c>
       <c r="W67">
-        <v>32.986336116109598</v>
+        <v>38.923647029554203</v>
       </c>
       <c r="X67">
-        <v>32.387615595374598</v>
+        <v>34.636455658102797</v>
       </c>
       <c r="Y67" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="Z67" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AA67" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="AB67" t="s">
         <v>34</v>
@@ -6096,37 +6114,40 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>13.771811469502</v>
+        <v>21.288601537764801</v>
       </c>
       <c r="B68">
-        <v>18.976772123464102</v>
+        <v>68.279160512755098</v>
       </c>
       <c r="C68">
-        <v>18.807045589884702</v>
+        <v>58.4799868845191</v>
       </c>
       <c r="D68">
-        <v>100.02480596262301</v>
+        <v>29.668335917196401</v>
       </c>
       <c r="E68">
-        <v>50.019580558280602</v>
+        <v>9.6745456136214294</v>
       </c>
       <c r="F68">
-        <v>2.8352421007759898</v>
+        <v>1.58706341596459</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="I68" t="s">
+        <v>28</v>
       </c>
       <c r="J68">
-        <v>39.1420101251774</v>
+        <v>49.680230380761202</v>
       </c>
       <c r="K68">
-        <v>16.584087785712502</v>
+        <v>45.713418610647999</v>
       </c>
       <c r="L68">
-        <v>7.3244807906176703</v>
+        <v>33.502140048318601</v>
       </c>
       <c r="M68" t="s">
         <v>30</v>
@@ -6135,102 +6156,102 @@
         <v>31</v>
       </c>
       <c r="O68" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P68">
-        <v>52.398299633473201</v>
+        <v>63.366696480523899</v>
       </c>
       <c r="Q68">
-        <v>43.623440965399801</v>
+        <v>43.736164142966103</v>
       </c>
       <c r="R68">
-        <v>33.745171616936901</v>
+        <v>32.2172936521225</v>
       </c>
       <c r="S68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T68" t="s">
         <v>33</v>
       </c>
-      <c r="T68" t="s">
-        <v>32</v>
-      </c>
       <c r="U68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V68">
-        <v>59.668666975968399</v>
+        <v>62.494817654212198</v>
       </c>
       <c r="W68">
-        <v>30.530992211647</v>
+        <v>49.800895431154103</v>
       </c>
       <c r="X68">
-        <v>29.607970490312098</v>
+        <v>43.903333078647997</v>
       </c>
       <c r="Y68" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="Z68" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AA68" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="AB68" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>24.457071343231</v>
+        <v>44.308898951648402</v>
       </c>
       <c r="B69">
-        <v>35.932082870240798</v>
+        <v>98.192677007616894</v>
       </c>
       <c r="C69">
-        <v>32.0501110167449</v>
+        <v>90.824948617470199</v>
       </c>
       <c r="D69">
-        <v>45.736386283812401</v>
+        <v>16.630815303394801</v>
       </c>
       <c r="E69">
-        <v>24.6560201124428</v>
+        <v>7.7996524079757696</v>
       </c>
       <c r="F69">
-        <v>2.2062550688174598</v>
+        <v>2.23643614167807</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J69">
-        <v>57.886704857199298</v>
+        <v>68.391611191258093</v>
       </c>
       <c r="K69">
-        <v>22.303729440796101</v>
+        <v>59.628462950260797</v>
       </c>
       <c r="L69">
-        <v>12.7569006158188</v>
+        <v>46.0922281524075</v>
       </c>
       <c r="M69" t="s">
         <v>30</v>
       </c>
       <c r="N69" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P69">
-        <v>45.554495295880599</v>
+        <v>75.915228902515693</v>
       </c>
       <c r="Q69">
-        <v>37.005848530529803</v>
+        <v>37.794621772350702</v>
       </c>
       <c r="R69">
-        <v>35.741693491067998</v>
+        <v>37.325969966817198</v>
       </c>
       <c r="S69" t="s">
         <v>33</v>
@@ -6239,238 +6260,238 @@
         <v>32</v>
       </c>
       <c r="U69" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="V69">
-        <v>65.370359414806501</v>
+        <v>100</v>
       </c>
       <c r="W69">
-        <v>40.9329463009093</v>
+        <v>100</v>
       </c>
       <c r="X69">
-        <v>37.823081783630499</v>
+        <v>100</v>
       </c>
       <c r="Y69" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>34.440686456846102</v>
+      </c>
+      <c r="B70">
+        <v>34.858747681566399</v>
+      </c>
+      <c r="C70">
+        <v>32.9469006486284</v>
+      </c>
+      <c r="D70">
+        <v>28.6575774961719</v>
+      </c>
+      <c r="E70">
+        <v>12.696521886419999</v>
+      </c>
+      <c r="F70">
+        <v>2.7828625437952201</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70">
+        <v>45.576534784969198</v>
+      </c>
+      <c r="K70">
+        <v>26.160143312241601</v>
+      </c>
+      <c r="L70">
+        <v>22.118457078133499</v>
+      </c>
+      <c r="M70" t="s">
+        <v>30</v>
+      </c>
+      <c r="N70" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70">
+        <v>61.063734429794899</v>
+      </c>
+      <c r="Q70">
+        <v>36.655927676306703</v>
+      </c>
+      <c r="R70">
+        <v>34.403467923212297</v>
+      </c>
+      <c r="S70" t="s">
+        <v>33</v>
+      </c>
+      <c r="T70" t="s">
+        <v>32</v>
+      </c>
+      <c r="U70" t="s">
+        <v>30</v>
+      </c>
+      <c r="V70">
+        <v>62.341940667040902</v>
+      </c>
+      <c r="W70">
+        <v>37.230323466829098</v>
+      </c>
+      <c r="X70">
+        <v>32.858003123712798</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB70" t="s">
         <v>34</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>22.171885142061299</v>
-      </c>
-      <c r="B70" s="1">
-        <v>61.256614673272402</v>
-      </c>
-      <c r="C70" s="1">
-        <v>53.619121114425603</v>
-      </c>
-      <c r="D70" s="1">
-        <v>34.1730151375858</v>
-      </c>
-      <c r="E70" s="1">
-        <v>12.6695319811615</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2.0249473014640502</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" s="1">
-        <v>58.273540259187598</v>
-      </c>
-      <c r="K70" s="1">
-        <v>22.6678296740523</v>
-      </c>
-      <c r="L70" s="1">
-        <v>12.9567933074301</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P70" s="1">
-        <v>59.936408318312701</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>42.486030475279101</v>
-      </c>
-      <c r="R70" s="1">
-        <v>35.618680488653297</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V70" s="1">
-        <v>56.022992011494203</v>
-      </c>
-      <c r="W70" s="1">
-        <v>47.714546957258698</v>
-      </c>
-      <c r="X70" s="1">
-        <v>39.492631489762502</v>
-      </c>
-      <c r="Y70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>27.407402148844302</v>
+        <v>22.736709412826698</v>
       </c>
       <c r="B71">
-        <v>78.924419591647606</v>
+        <v>76.962226098413197</v>
       </c>
       <c r="C71">
-        <v>72.028050054232807</v>
+        <v>73.345009099717402</v>
       </c>
       <c r="D71">
-        <v>29.950464235903201</v>
+        <v>28.644283489713398</v>
       </c>
       <c r="E71">
-        <v>10.659800906082801</v>
+        <v>8.3652234768974196</v>
       </c>
       <c r="F71">
-        <v>2.0307896801181</v>
+        <v>1.64306489713548</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
       <c r="H71" t="s">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s">
         <v>35</v>
       </c>
-      <c r="I71" t="s">
-        <v>28</v>
-      </c>
       <c r="J71">
-        <v>61.4436741434331</v>
+        <v>54.236436550009699</v>
       </c>
       <c r="K71">
-        <v>23.937461317011</v>
+        <v>23.8726681001211</v>
       </c>
       <c r="L71">
-        <v>21.04002256843</v>
+        <v>22.407692909332798</v>
       </c>
       <c r="M71" t="s">
         <v>30</v>
       </c>
       <c r="N71" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P71">
-        <v>62.555347717766097</v>
+        <v>66.458670920744098</v>
       </c>
       <c r="Q71">
-        <v>40.8993739540146</v>
+        <v>41.7505016206268</v>
       </c>
       <c r="R71">
-        <v>34.093081191834102</v>
+        <v>38.792627684243897</v>
       </c>
       <c r="S71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U71" t="s">
         <v>32</v>
       </c>
       <c r="V71">
-        <v>58.057686909878598</v>
+        <v>62.826702328445798</v>
       </c>
       <c r="W71">
-        <v>52.603746312757501</v>
+        <v>54.888279403077</v>
       </c>
       <c r="X71">
-        <v>36.046887444544801</v>
+        <v>38.172506924893199</v>
       </c>
       <c r="Y71" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="Z71" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AA71" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AB71" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>44.366267893686299</v>
+        <v>55.1009313537335</v>
       </c>
       <c r="B72">
-        <v>95.104080302868795</v>
+        <v>100</v>
       </c>
       <c r="C72">
-        <v>90.325873640516207</v>
+        <v>100</v>
       </c>
       <c r="D72">
-        <v>20.7263225609654</v>
+        <v>17.132229889828398</v>
       </c>
       <c r="E72">
-        <v>9.7970607265878709</v>
+        <v>9.4400182309581506</v>
       </c>
       <c r="F72">
-        <v>2.53136781625573</v>
+        <v>2.5187773236785098</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I72" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J72">
-        <v>67.868121411706994</v>
+        <v>67.500101228467798</v>
       </c>
       <c r="K72">
-        <v>31.1910289326098</v>
+        <v>60.668478500727701</v>
       </c>
       <c r="L72">
-        <v>29.079891300386901</v>
+        <v>38.413132425268699</v>
       </c>
       <c r="M72" t="s">
         <v>30</v>
@@ -6482,81 +6503,63 @@
         <v>52</v>
       </c>
       <c r="P72">
-        <v>71.165823742970602</v>
+        <v>81.606690236742395</v>
       </c>
       <c r="Q72">
-        <v>38.930102860007104</v>
+        <v>50.055768852803702</v>
       </c>
       <c r="R72">
-        <v>30.182452957217698</v>
-      </c>
-      <c r="S72" t="s">
-        <v>30</v>
-      </c>
-      <c r="T72" t="s">
-        <v>33</v>
-      </c>
-      <c r="U72" t="s">
-        <v>31</v>
-      </c>
-      <c r="V72">
-        <v>67.535942703898499</v>
-      </c>
-      <c r="W72">
-        <v>36.393714854139397</v>
-      </c>
-      <c r="X72">
-        <v>35.1399010350083</v>
+        <v>32.643919169151502</v>
       </c>
       <c r="Y72" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="Z72" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AA72" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AB72" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>52.999881497575203</v>
+        <v>25.712110999125699</v>
       </c>
       <c r="B73">
-        <v>98.240510057050003</v>
+        <v>29.833681037621801</v>
       </c>
       <c r="C73">
-        <v>96.263215896518304</v>
+        <v>29.0592308016465</v>
       </c>
       <c r="D73">
-        <v>20.328962646799301</v>
+        <v>24.346494669331602</v>
       </c>
       <c r="E73">
-        <v>11.1152708144493</v>
+        <v>9.6374034474972898</v>
       </c>
       <c r="F73">
-        <v>2.88621160896697</v>
+        <v>1.96601641769317</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s">
         <v>35</v>
       </c>
       <c r="J73">
-        <v>75.089620017216006</v>
+        <v>67.713979742146293</v>
       </c>
       <c r="K73">
-        <v>44.961360302896701</v>
+        <v>10.899700479523</v>
       </c>
       <c r="L73">
-        <v>34.338573661478101</v>
+        <v>9.0298521585817895</v>
       </c>
       <c r="M73" t="s">
         <v>30</v>
@@ -6565,232 +6568,220 @@
         <v>31</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P73">
-        <v>77.433795195576295</v>
+        <v>52.488375081098297</v>
       </c>
       <c r="Q73">
-        <v>38.1922929928364</v>
+        <v>34.764400930476</v>
       </c>
       <c r="R73">
-        <v>28.702575205562098</v>
+        <v>34.411551702323301</v>
       </c>
       <c r="S73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V73">
-        <v>54.943495262300097</v>
+        <v>67.332952352681403</v>
       </c>
       <c r="W73">
-        <v>36.737729878541302</v>
+        <v>39.970157388342997</v>
       </c>
       <c r="X73">
-        <v>24.845422020329099</v>
+        <v>37.8654575658746</v>
       </c>
       <c r="Y73" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB73" t="s">
         <v>34</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>51.231707414547898</v>
+        <v>33.661964953589703</v>
       </c>
       <c r="B74">
-        <v>99.795195617586799</v>
+        <v>89.407424973860103</v>
       </c>
       <c r="C74">
-        <v>97.859073644577407</v>
+        <v>84.587603869681502</v>
       </c>
       <c r="D74">
-        <v>20.604407709357599</v>
+        <v>20.6099683856186</v>
       </c>
       <c r="E74">
-        <v>10.7914498294843</v>
+        <v>7.92522622917663</v>
       </c>
       <c r="F74">
-        <v>3.3729773269924901</v>
+        <v>2.1812293468229802</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I74" t="s">
         <v>35</v>
       </c>
       <c r="J74">
-        <v>75.778926908142694</v>
+        <v>84.151286367289799</v>
       </c>
       <c r="K74">
-        <v>49.950990523603402</v>
+        <v>55.087338257002401</v>
       </c>
       <c r="L74">
-        <v>36.655087815998499</v>
+        <v>12.9280419658193</v>
       </c>
       <c r="M74" t="s">
         <v>30</v>
       </c>
       <c r="N74" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P74">
-        <v>81.518053697838795</v>
+        <v>58.820753194013598</v>
       </c>
       <c r="Q74">
-        <v>39.789258253288502</v>
+        <v>26.584257054481601</v>
       </c>
       <c r="R74">
-        <v>26.796317460612201</v>
+        <v>26.337956720927899</v>
       </c>
       <c r="S74" t="s">
+        <v>30</v>
+      </c>
+      <c r="T74" t="s">
+        <v>31</v>
+      </c>
+      <c r="U74" t="s">
         <v>33</v>
       </c>
-      <c r="T74" t="s">
-        <v>31</v>
-      </c>
-      <c r="U74" t="s">
-        <v>30</v>
-      </c>
       <c r="V74">
-        <v>100</v>
+        <v>71.114056561795195</v>
       </c>
       <c r="W74">
-        <v>100</v>
+        <v>58.880216210433197</v>
       </c>
       <c r="X74">
-        <v>100</v>
+        <v>52.209131367740497</v>
       </c>
       <c r="Y74" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="Z74" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="AA74" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AB74" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>63.158624815961701</v>
+        <v>40.364044848402401</v>
       </c>
       <c r="B75">
-        <v>99.380882107878804</v>
+        <v>100</v>
       </c>
       <c r="C75">
-        <v>98.810520805802696</v>
+        <v>100</v>
       </c>
       <c r="D75">
-        <v>22.968517397055699</v>
+        <v>18.007128017356099</v>
       </c>
       <c r="E75">
-        <v>14.582396517916401</v>
+        <v>7.2684052288348697</v>
       </c>
       <c r="F75">
-        <v>3.7228237548202201</v>
+        <v>2.6323978151816001</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="J75">
-        <v>73.434106248608899</v>
+        <v>84.888196197026403</v>
       </c>
       <c r="K75">
-        <v>53.682316409670896</v>
+        <v>54.664588591079202</v>
       </c>
       <c r="L75">
-        <v>33.254147371923402</v>
+        <v>54.664588591079202</v>
       </c>
       <c r="M75" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O75" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P75">
-        <v>78.005437326491304</v>
+        <v>54.664588591079202</v>
       </c>
       <c r="Q75">
-        <v>33.481170164939599</v>
+        <v>54.664588591079202</v>
       </c>
       <c r="R75">
-        <v>22.126977550356301</v>
-      </c>
-      <c r="S75" t="s">
-        <v>94</v>
-      </c>
-      <c r="T75" t="s">
-        <v>31</v>
-      </c>
-      <c r="V75">
-        <v>16.629995149662001</v>
-      </c>
-      <c r="W75">
-        <v>16.629995149662001</v>
+        <v>45.335411408920798</v>
       </c>
       <c r="Y75" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="Z75" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="AA75" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AB75" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>32.403053897703003</v>
+        <v>27.3068242982695</v>
       </c>
       <c r="B76">
-        <v>30.232342285360801</v>
+        <v>27.234587072866699</v>
       </c>
       <c r="C76">
-        <v>28.720272967616999</v>
+        <v>25.581070856772499</v>
       </c>
       <c r="D76">
-        <v>43.796776112490001</v>
+        <v>54.984550590773601</v>
       </c>
       <c r="E76">
-        <v>19.572046813199702</v>
+        <v>26.411763934316198</v>
       </c>
       <c r="F76">
-        <v>2.7600516517759002</v>
+        <v>2.72876919138537</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
@@ -6799,34 +6790,34 @@
         <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J76">
-        <v>77.288025681808406</v>
+        <v>60.663196090515697</v>
       </c>
       <c r="K76">
-        <v>36.510925668020398</v>
+        <v>21.392077689144301</v>
       </c>
       <c r="L76">
-        <v>10.567432305933799</v>
+        <v>12.9386002596745</v>
       </c>
       <c r="M76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O76" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P76">
-        <v>39.100496310409497</v>
+        <v>43.649211780079199</v>
       </c>
       <c r="Q76">
-        <v>34.958802493617</v>
+        <v>41.737472260055902</v>
       </c>
       <c r="R76">
-        <v>31.936558445620499</v>
+        <v>28.877622869232098</v>
       </c>
       <c r="S76" t="s">
         <v>33</v>
@@ -6838,22 +6829,22 @@
         <v>31</v>
       </c>
       <c r="V76">
-        <v>49.970957478410902</v>
+        <v>58.358034600159002</v>
       </c>
       <c r="W76">
-        <v>27.509307924528802</v>
+        <v>30.745327066066999</v>
       </c>
       <c r="X76">
-        <v>26.6157871353297</v>
+        <v>30.0564735564781</v>
       </c>
       <c r="Y76" t="s">
         <v>108</v>
       </c>
       <c r="Z76" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AA76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AB76" t="s">
         <v>34</v>
@@ -6861,40 +6852,40 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>19.8987457849496</v>
+        <v>25.566572252710898</v>
       </c>
       <c r="B77">
-        <v>63.164601917304701</v>
+        <v>71.904648062138506</v>
       </c>
       <c r="C77">
-        <v>60.568985045490599</v>
+        <v>66.220444272793699</v>
       </c>
       <c r="D77">
-        <v>55.730648280860699</v>
+        <v>23.6855768829056</v>
       </c>
       <c r="E77">
-        <v>16.055831961017599</v>
+        <v>8.7386748180814102</v>
       </c>
       <c r="F77">
-        <v>2.0489226726599599</v>
+        <v>1.5898333098013899</v>
       </c>
       <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
         <v>35</v>
       </c>
-      <c r="H77" t="s">
-        <v>27</v>
-      </c>
       <c r="I77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J77">
-        <v>64.306683223334801</v>
+        <v>68.9347764402075</v>
       </c>
       <c r="K77">
-        <v>55.687065496097702</v>
+        <v>27.515519884643702</v>
       </c>
       <c r="L77">
-        <v>29.1095516076746</v>
+        <v>14.609493515661001</v>
       </c>
       <c r="M77" t="s">
         <v>30</v>
@@ -6903,43 +6894,43 @@
         <v>31</v>
       </c>
       <c r="O77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P77">
-        <v>55.237170644590798</v>
+        <v>52.348005082450101</v>
       </c>
       <c r="Q77">
-        <v>53.866029563894003</v>
+        <v>37.994084004233002</v>
       </c>
       <c r="R77">
-        <v>47.302685311860202</v>
+        <v>32.220001070282102</v>
       </c>
       <c r="S77" t="s">
         <v>30</v>
       </c>
       <c r="T77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V77">
-        <v>75.681080213825496</v>
+        <v>67.953208629132206</v>
       </c>
       <c r="W77">
-        <v>61.5880229541375</v>
+        <v>63.702334399931502</v>
       </c>
       <c r="X77">
-        <v>32.203406402257798</v>
+        <v>39.492132675068802</v>
       </c>
       <c r="Y77" t="s">
         <v>108</v>
       </c>
       <c r="Z77" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AA77" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AB77" t="s">
         <v>110</v>
@@ -6947,67 +6938,67 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>44.908029252751199</v>
+        <v>57.425992363286603</v>
       </c>
       <c r="B78">
         <v>100</v>
       </c>
       <c r="C78">
-        <v>100</v>
+        <v>96.835046346301795</v>
       </c>
       <c r="D78">
-        <v>17.537614119050001</v>
+        <v>23.5447878902553</v>
       </c>
       <c r="E78">
-        <v>7.8757968788175798</v>
+        <v>14.1542619560286</v>
       </c>
       <c r="F78">
-        <v>2.7419889427412198</v>
+        <v>3.6109351145451698</v>
       </c>
       <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s">
         <v>28</v>
       </c>
-      <c r="H78" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" t="s">
-        <v>35</v>
-      </c>
       <c r="J78">
-        <v>70.842443053017107</v>
+        <v>88.587885455811602</v>
       </c>
       <c r="K78">
-        <v>69.638952977278393</v>
+        <v>78.782694753326496</v>
       </c>
       <c r="L78">
-        <v>40.4813960302955</v>
+        <v>47.890262373647701</v>
       </c>
       <c r="M78" t="s">
         <v>30</v>
       </c>
       <c r="N78" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P78">
-        <v>80.962792060590999</v>
+        <v>96.665332624218806</v>
       </c>
       <c r="Q78">
-        <v>50.601745037869399</v>
+        <v>38.847598247235801</v>
       </c>
       <c r="R78">
-        <v>30.3610470227216</v>
+        <v>32.517690939839298</v>
       </c>
       <c r="Y78" t="s">
         <v>108</v>
       </c>
       <c r="Z78" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AA78" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AB78" t="s">
         <v>111</v>
@@ -7015,85 +7006,79 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>32.403053897703003</v>
+        <v>46.325115298371301</v>
       </c>
       <c r="B79">
-        <v>30.232342285360801</v>
+        <v>32.263718900896798</v>
       </c>
       <c r="C79">
-        <v>28.720272967616999</v>
+        <v>27.926062895775299</v>
       </c>
       <c r="D79">
-        <v>43.796776112490001</v>
+        <v>32.244417259151099</v>
       </c>
       <c r="E79">
-        <v>19.572046813199702</v>
+        <v>18.278283586185001</v>
       </c>
       <c r="F79">
-        <v>2.7600516517759002</v>
+        <v>2.3779640750081499</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
-      <c r="H79" t="s">
-        <v>35</v>
-      </c>
-      <c r="I79" t="s">
-        <v>28</v>
-      </c>
       <c r="J79">
-        <v>77.288025681808406</v>
+        <v>40.813100803571501</v>
       </c>
       <c r="K79">
-        <v>36.510925668020398</v>
+        <v>39.333457733887897</v>
       </c>
       <c r="L79">
-        <v>10.567432305933799</v>
+        <v>24.728246101653699</v>
       </c>
       <c r="M79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N79" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O79" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P79">
-        <v>39.100496310409497</v>
+        <v>40.607343189976099</v>
       </c>
       <c r="Q79">
-        <v>34.958802493617</v>
+        <v>36.792608621560703</v>
       </c>
       <c r="R79">
-        <v>31.936558445620499</v>
+        <v>36.196271837468998</v>
       </c>
       <c r="S79" t="s">
         <v>33</v>
       </c>
       <c r="T79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V79">
-        <v>49.970957478410902</v>
+        <v>56.4416040218048</v>
       </c>
       <c r="W79">
-        <v>27.509307924528802</v>
+        <v>33.655345580417098</v>
       </c>
       <c r="X79">
-        <v>26.6157871353297</v>
+        <v>26.0212984095369</v>
       </c>
       <c r="Y79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z79" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AA79" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="AB79" t="s">
         <v>34</v>
@@ -7101,173 +7086,170 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>14.2505158989268</v>
+        <v>22.3859518936098</v>
       </c>
       <c r="B80">
-        <v>11.2511301610886</v>
+        <v>77.168358270599697</v>
       </c>
       <c r="C80">
-        <v>11.2511301610886</v>
+        <v>68.428490388762398</v>
       </c>
       <c r="D80">
-        <v>25.340914824586701</v>
+        <v>26.526570328659101</v>
       </c>
       <c r="E80">
-        <v>17.483678172248901</v>
+        <v>8.1119486152530698</v>
       </c>
       <c r="F80">
-        <v>0.95927113574039902</v>
+        <v>1.6387092773529399</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
       </c>
-      <c r="H80" t="s">
-        <v>35</v>
+      <c r="I80" t="s">
+        <v>28</v>
       </c>
       <c r="J80">
-        <v>100</v>
+        <v>39.656528152682199</v>
       </c>
       <c r="K80">
-        <v>71.246672269132006</v>
+        <v>38.759829579969598</v>
+      </c>
+      <c r="L80">
+        <v>26.6458563116481</v>
       </c>
       <c r="M80" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N80" t="s">
         <v>32</v>
       </c>
       <c r="O80" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P80">
-        <v>71.246672269132006</v>
+        <v>63.261342616121397</v>
       </c>
       <c r="Q80">
-        <v>64.535246684837006</v>
+        <v>53.509632908880903</v>
       </c>
       <c r="R80">
-        <v>64.535246684837006</v>
+        <v>50.693086462169497</v>
       </c>
       <c r="S80" t="s">
         <v>33</v>
       </c>
       <c r="T80" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="U80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V80">
-        <v>40.314218705434001</v>
+        <v>58.614486986395001</v>
       </c>
       <c r="W80">
-        <v>20.824540821393501</v>
+        <v>48.7879643013923</v>
       </c>
       <c r="X80">
-        <v>20.824540821393501</v>
+        <v>40.152244377194599</v>
       </c>
       <c r="Y80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z80" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AA80" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="AB80" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>9.848887932597</v>
+        <v>55.4809826767546</v>
       </c>
       <c r="B81">
-        <v>41.345237261336898</v>
+        <v>100</v>
       </c>
       <c r="C81">
-        <v>41.345237261336898</v>
+        <v>96.407399639568297</v>
       </c>
       <c r="D81">
-        <v>279.85823617003302</v>
+        <v>23.5248644362186</v>
       </c>
       <c r="E81">
-        <v>73.496450470147593</v>
+        <v>13.8693632130546</v>
       </c>
       <c r="F81">
-        <v>3.5519368078106899</v>
+        <v>2.8908263389381799</v>
       </c>
       <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s">
         <v>27</v>
       </c>
       <c r="J81">
-        <v>90.252556797029499</v>
+        <v>55.792084866838103</v>
       </c>
       <c r="K81">
-        <v>18.523579425432999</v>
+        <v>55.168230722721603</v>
+      </c>
+      <c r="L81">
+        <v>47.864945076981002</v>
       </c>
       <c r="M81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N81" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
       </c>
       <c r="P81">
-        <v>19.494886405941099</v>
+        <v>81.258266168049502</v>
       </c>
       <c r="Q81">
-        <v>9.7474432029705298</v>
-      </c>
-      <c r="S81" t="s">
-        <v>33</v>
-      </c>
-      <c r="T81" t="s">
-        <v>32</v>
-      </c>
-      <c r="U81" t="s">
-        <v>31</v>
-      </c>
-      <c r="V81">
-        <v>78.8059546515574</v>
-      </c>
-      <c r="W81">
-        <v>57.0679481524746</v>
-      </c>
-      <c r="X81">
-        <v>29.190274262852899</v>
+        <v>33.677640834967598</v>
+      </c>
+      <c r="R81">
+        <v>24.4794091406844</v>
       </c>
       <c r="Y81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z81" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AA81" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="AB81" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>12.120705860896001</v>
+        <v>30.665918340316399</v>
       </c>
       <c r="B82">
-        <v>50.283934378048997</v>
+        <v>45.0395988349864</v>
       </c>
       <c r="C82">
-        <v>39.632029129938601</v>
+        <v>40.627803555556298</v>
       </c>
       <c r="D82">
-        <v>33.455513235965299</v>
+        <v>20.200320888865001</v>
       </c>
       <c r="E82">
-        <v>9.5570614546119099</v>
+        <v>8.4479588316682399</v>
       </c>
       <c r="F82">
-        <v>1.3504630277813501</v>
+        <v>2.3865572871098699</v>
       </c>
       <c r="G82" t="s">
         <v>27</v>
@@ -7276,102 +7258,102 @@
         <v>35</v>
       </c>
       <c r="I82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J82">
-        <v>45.920836358412998</v>
+        <v>53.863631294885899</v>
       </c>
       <c r="K82">
-        <v>22.427692104947099</v>
+        <v>26.007570111741799</v>
       </c>
       <c r="L82">
-        <v>13.7481564115783</v>
+        <v>19.511545740822498</v>
       </c>
       <c r="M82" t="s">
         <v>30</v>
       </c>
       <c r="N82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P82">
-        <v>49.489108901043203</v>
+        <v>52.643262142548203</v>
       </c>
       <c r="Q82">
-        <v>36.791003984333997</v>
+        <v>35.595541812007902</v>
       </c>
       <c r="R82">
-        <v>36.613599788939403</v>
+        <v>30.630423567925298</v>
       </c>
       <c r="S82" t="s">
         <v>33</v>
       </c>
       <c r="T82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V82">
-        <v>73.765173179426995</v>
+        <v>64.517135939535905</v>
       </c>
       <c r="W82">
-        <v>50.5201989571786</v>
+        <v>43.166539326631501</v>
       </c>
       <c r="X82">
-        <v>44.281078164354803</v>
+        <v>38.651600840142002</v>
       </c>
       <c r="Y82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z82" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="AA82" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AB82" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>19.8987457849496</v>
+        <v>23.843633187407001</v>
       </c>
       <c r="B83">
-        <v>63.164601917304701</v>
+        <v>62.746482211991498</v>
       </c>
       <c r="C83">
-        <v>60.568985045490599</v>
+        <v>53.497297756347997</v>
       </c>
       <c r="D83">
-        <v>55.730648280860699</v>
+        <v>29.1124953636416</v>
       </c>
       <c r="E83">
-        <v>16.055831961017599</v>
+        <v>9.7738811249579101</v>
       </c>
       <c r="F83">
-        <v>2.0489226726599599</v>
+        <v>2.1110880049055298</v>
       </c>
       <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s">
         <v>35</v>
       </c>
-      <c r="H83" t="s">
-        <v>27</v>
-      </c>
-      <c r="I83" t="s">
-        <v>28</v>
-      </c>
       <c r="J83">
-        <v>64.306683223334801</v>
+        <v>48.054803336505302</v>
       </c>
       <c r="K83">
-        <v>55.687065496097702</v>
+        <v>42.031745404804902</v>
       </c>
       <c r="L83">
-        <v>29.1095516076746</v>
+        <v>31.053882514066899</v>
       </c>
       <c r="M83" t="s">
         <v>30</v>
@@ -7380,238 +7362,238 @@
         <v>31</v>
       </c>
       <c r="O83" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P83">
-        <v>55.237170644590798</v>
+        <v>63.764515411474399</v>
       </c>
       <c r="Q83">
-        <v>53.866029563894003</v>
+        <v>54.066809668037202</v>
       </c>
       <c r="R83">
-        <v>47.302685311860202</v>
+        <v>49.929932250701398</v>
       </c>
       <c r="S83" t="s">
         <v>30</v>
       </c>
       <c r="T83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V83">
-        <v>75.681080213825496</v>
+        <v>58.862142152595403</v>
       </c>
       <c r="W83">
-        <v>61.5880229541375</v>
+        <v>49.1379244581289</v>
       </c>
       <c r="X83">
-        <v>32.203406402257798</v>
+        <v>35.779071860573801</v>
       </c>
       <c r="Y83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z83" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="AA83" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AB83" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>47.605247497315098</v>
+        <v>40.375406601195003</v>
       </c>
       <c r="B84">
-        <v>89.903425770896902</v>
+        <v>100</v>
       </c>
       <c r="C84">
-        <v>89.903425770896902</v>
+        <v>94.531365448776398</v>
       </c>
       <c r="D84">
-        <v>49.275685254462701</v>
+        <v>29.839263936547599</v>
       </c>
       <c r="E84">
-        <v>24.656395260579298</v>
+        <v>12.431360368722</v>
       </c>
       <c r="F84">
-        <v>4.1139799048194003</v>
+        <v>3.1291966971544798</v>
       </c>
       <c r="G84" t="s">
         <v>27</v>
       </c>
       <c r="H84" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
         <v>28</v>
       </c>
       <c r="J84">
-        <v>78.990650724322506</v>
+        <v>50.812997279491498</v>
       </c>
       <c r="K84">
-        <v>50.087131968878502</v>
+        <v>39.6718560370688</v>
       </c>
       <c r="L84">
-        <v>16.420664810359899</v>
+        <v>37.969765187363102</v>
       </c>
       <c r="M84" t="s">
         <v>30</v>
       </c>
       <c r="N84" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O84" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P84">
-        <v>64.692946929787496</v>
+        <v>54.411100744364902</v>
       </c>
       <c r="Q84">
-        <v>62.569985913962597</v>
+        <v>35.659927139007898</v>
       </c>
       <c r="R84">
-        <v>57.379787732129699</v>
-      </c>
-      <c r="S84" t="s">
-        <v>33</v>
-      </c>
-      <c r="T84" t="s">
-        <v>32</v>
-      </c>
-      <c r="U84" t="s">
-        <v>39</v>
-      </c>
-      <c r="V84">
-        <v>53.784661372403498</v>
-      </c>
-      <c r="W84">
-        <v>53.784661372403498</v>
-      </c>
-      <c r="X84">
-        <v>53.784661372403498</v>
+        <v>12.753761181223901</v>
       </c>
       <c r="Y84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z84" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="AA84" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AB84" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>48.7051314861991</v>
+        <v>32.403053897703003</v>
       </c>
       <c r="B85">
-        <v>100</v>
+        <v>30.232342285360801</v>
       </c>
       <c r="C85">
-        <v>100</v>
+        <v>28.720272967616999</v>
       </c>
       <c r="D85">
-        <v>15.522527152620301</v>
+        <v>43.796776112490001</v>
       </c>
       <c r="E85">
-        <v>7.5602672596646903</v>
+        <v>19.572046813199702</v>
       </c>
       <c r="F85">
-        <v>2.2525385886282501</v>
+        <v>2.7600516517759002</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
       </c>
       <c r="H85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" t="s">
         <v>28</v>
       </c>
-      <c r="I85" t="s">
-        <v>35</v>
-      </c>
       <c r="J85">
-        <v>82.019654177039996</v>
+        <v>77.288025681808406</v>
       </c>
       <c r="K85">
-        <v>66.556752117210806</v>
+        <v>36.510925668020398</v>
       </c>
       <c r="L85">
-        <v>39.081463203772302</v>
+        <v>10.567432305933799</v>
       </c>
       <c r="M85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N85" t="s">
         <v>31</v>
       </c>
       <c r="O85" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="P85">
-        <v>90.329331885533904</v>
+        <v>39.100496310409497</v>
       </c>
       <c r="Q85">
-        <v>53.955463696377301</v>
+        <v>34.958802493617</v>
       </c>
       <c r="R85">
-        <v>39.509542611602598</v>
+        <v>31.936558445620499</v>
+      </c>
+      <c r="S85" t="s">
+        <v>33</v>
+      </c>
+      <c r="T85" t="s">
+        <v>32</v>
+      </c>
+      <c r="U85" t="s">
+        <v>31</v>
+      </c>
+      <c r="V85">
+        <v>49.970957478410902</v>
+      </c>
+      <c r="W85">
+        <v>27.509307924528802</v>
+      </c>
+      <c r="X85">
+        <v>26.6157871353297</v>
       </c>
       <c r="Y85" t="s">
         <v>108</v>
       </c>
       <c r="Z85" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="AA85" t="s">
         <v>58</v>
       </c>
       <c r="AB85" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>44.908029252751199</v>
+        <v>19.8987457849496</v>
       </c>
       <c r="B86">
-        <v>100</v>
+        <v>63.164601917304701</v>
       </c>
       <c r="C86">
-        <v>100</v>
+        <v>60.568985045490599</v>
       </c>
       <c r="D86">
-        <v>17.537614119050001</v>
+        <v>55.730648280860699</v>
       </c>
       <c r="E86">
-        <v>7.8757968788175798</v>
+        <v>16.055831961017599</v>
       </c>
       <c r="F86">
-        <v>2.7419889427412198</v>
+        <v>2.0489226726599599</v>
       </c>
       <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
         <v>28</v>
       </c>
-      <c r="H86" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" t="s">
-        <v>35</v>
-      </c>
       <c r="J86">
-        <v>70.842443053017107</v>
+        <v>64.306683223334801</v>
       </c>
       <c r="K86">
-        <v>69.638952977278393</v>
+        <v>55.687065496097702</v>
       </c>
       <c r="L86">
-        <v>40.4813960302955</v>
+        <v>29.1095516076746</v>
       </c>
       <c r="M86" t="s">
         <v>30</v>
@@ -7620,66 +7602,84 @@
         <v>31</v>
       </c>
       <c r="O86" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P86">
-        <v>80.962792060590999</v>
+        <v>55.237170644590798</v>
       </c>
       <c r="Q86">
-        <v>50.601745037869399</v>
+        <v>53.866029563894003</v>
       </c>
       <c r="R86">
-        <v>30.3610470227216</v>
+        <v>47.302685311860202</v>
+      </c>
+      <c r="S86" t="s">
+        <v>30</v>
+      </c>
+      <c r="T86" t="s">
+        <v>31</v>
+      </c>
+      <c r="U86" t="s">
+        <v>33</v>
+      </c>
+      <c r="V86">
+        <v>75.681080213825496</v>
+      </c>
+      <c r="W86">
+        <v>61.5880229541375</v>
+      </c>
+      <c r="X86">
+        <v>32.203406402257798</v>
       </c>
       <c r="Y86" t="s">
         <v>108</v>
       </c>
       <c r="Z86" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="AA86" t="s">
         <v>58</v>
       </c>
       <c r="AB86" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>54.704061467866502</v>
+        <v>44.908029252751199</v>
       </c>
       <c r="B87">
         <v>100</v>
       </c>
       <c r="C87">
-        <v>83.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="D87">
-        <v>18.5508148948268</v>
+        <v>17.537614119050001</v>
       </c>
       <c r="E87">
-        <v>12.834255354794401</v>
+        <v>7.8757968788175798</v>
       </c>
       <c r="F87">
-        <v>2.93349299215302</v>
+        <v>2.7419889427412198</v>
       </c>
       <c r="G87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" t="s">
         <v>35</v>
       </c>
-      <c r="I87" t="s">
-        <v>28</v>
-      </c>
       <c r="J87">
-        <v>79.810806642331997</v>
+        <v>70.842443053017107</v>
       </c>
       <c r="K87">
-        <v>59.621613284664001</v>
+        <v>69.638952977278393</v>
       </c>
       <c r="L87">
-        <v>40.378386715335999</v>
+        <v>40.4813960302955</v>
       </c>
       <c r="M87" t="s">
         <v>30</v>
@@ -7688,28 +7688,28 @@
         <v>31</v>
       </c>
       <c r="O87" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P87">
-        <v>83.175672201943399</v>
+        <v>80.962792060590999</v>
       </c>
       <c r="Q87">
-        <v>33.4909944647233</v>
+        <v>50.601745037869399</v>
       </c>
       <c r="R87">
-        <v>16.8243277980567</v>
+        <v>30.3610470227216</v>
       </c>
       <c r="Y87" t="s">
         <v>108</v>
       </c>
       <c r="Z87" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="AA87" t="s">
         <v>58</v>
       </c>
       <c r="AB87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
@@ -10104,8 +10104,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB117">
-    <sortCondition ref="Z11:Z117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:AB117">
+    <sortCondition ref="Z37:Z117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
